--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/2_five_bus_radial_grid_yyn_gen_pf_sc_results_0_branch_ward34_impedance.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/2_five_bus_radial_grid_yyn_gen_pf_sc_results_0_branch_ward34_impedance.xlsx
@@ -994,40 +994,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-1.563194052506537E-14</v>
+        <v>-3.126388105013047E-14</v>
       </c>
       <c r="O2">
-        <v>1.042124982428609E-14</v>
+        <v>1.302657324318456E-14</v>
       </c>
       <c r="P2">
-        <v>-4.453701581637349E-20</v>
+        <v>-5.210691373444642E-15</v>
       </c>
       <c r="Q2">
-        <v>5.210646841688501E-15</v>
+        <v>2.084258736675368E-14</v>
       </c>
       <c r="R2">
-        <v>2.605795522812271E-15</v>
+        <v>4.721031286683035E-19</v>
       </c>
       <c r="S2">
-        <v>4.727894349048249E-19</v>
+        <v>-5.210174064428119E-15</v>
       </c>
       <c r="T2">
-        <v>2.08425873667533E-14</v>
+        <v>2.084258736675312E-14</v>
       </c>
       <c r="U2">
-        <v>5.763410493837118E-09</v>
+        <v>5.763389651249763E-09</v>
       </c>
       <c r="V2">
-        <v>-5.763402682029841E-09</v>
+        <v>-5.763381839442464E-09</v>
       </c>
       <c r="W2">
-        <v>-1.042129368337668E-14</v>
+        <v>-1.563194052506487E-14</v>
       </c>
       <c r="X2">
-        <v>-5.763394861410699E-09</v>
+        <v>-5.763394861410703E-09</v>
       </c>
       <c r="Y2">
-        <v>5.763407893162584E-09</v>
+        <v>5.7633870505752E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -1051,37 +1051,37 @@
         <v>1.100000023808766</v>
       </c>
       <c r="AG2">
-        <v>0.5500000117057459</v>
+        <v>0.5500000117057464</v>
       </c>
       <c r="AH2">
-        <v>0.5500000121030184</v>
+        <v>0.550000012103018</v>
       </c>
       <c r="AI2">
         <v>1.100000023808766</v>
       </c>
       <c r="AJ2">
-        <v>0.5500000116593765</v>
+        <v>0.550000011659377</v>
       </c>
       <c r="AK2">
-        <v>0.5500000121493875</v>
+        <v>0.5500000121493868</v>
       </c>
       <c r="AL2">
-        <v>6.92343595716384E-13</v>
+        <v>6.634117486182683E-13</v>
       </c>
       <c r="AM2">
         <v>-179.9999999995567</v>
       </c>
       <c r="AN2">
-        <v>179.9999999995499</v>
+        <v>179.99999999955</v>
       </c>
       <c r="AO2">
-        <v>7.082758124159204E-13</v>
+        <v>6.817262890806854E-13</v>
       </c>
       <c r="AP2">
         <v>-179.9999999952994</v>
       </c>
       <c r="AQ2">
-        <v>179.9999999952925</v>
+        <v>179.9999999952927</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -1125,40 +1125,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.04212936833772E-14</v>
+        <v>-5.210646841688246E-15</v>
       </c>
       <c r="O3">
-        <v>2.049494803798653E-19</v>
+        <v>2.605528369090769E-15</v>
       </c>
       <c r="P3">
-        <v>4.168537993086173E-14</v>
+        <v>5.210852021331813E-15</v>
       </c>
       <c r="Q3">
-        <v>-1.56319405250657E-14</v>
+        <v>-5.210646841688558E-15</v>
       </c>
       <c r="R3">
-        <v>1.302645973070846E-14</v>
+        <v>1.042113631187851E-14</v>
       </c>
       <c r="S3">
-        <v>-5.210662603514871E-14</v>
+        <v>-1.563209812607722E-14</v>
       </c>
       <c r="T3">
-        <v>-3.647452789181846E-14</v>
+        <v>-1.042129368337681E-14</v>
       </c>
       <c r="U3">
-        <v>-1.921126409769406E-09</v>
+        <v>-1.921126409769407E-09</v>
       </c>
       <c r="V3">
-        <v>1.921123806265545E-09</v>
+        <v>1.921134227559233E-09</v>
       </c>
       <c r="W3">
-        <v>4.689582157519516E-14</v>
+        <v>1.563194052506506E-14</v>
       </c>
       <c r="X3">
-        <v>1.921131620470234E-09</v>
+        <v>1.921121199176557E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.92111859556471E-09</v>
+        <v>-1.921139438152087E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -1179,25 +1179,25 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.100000023808765</v>
+        <v>1.100000023808766</v>
       </c>
       <c r="AG3">
-        <v>0.5500000116439205</v>
+        <v>0.5500000116439208</v>
       </c>
       <c r="AH3">
-        <v>0.5500000121648446</v>
+        <v>0.5500000121648434</v>
       </c>
       <c r="AI3">
         <v>1.100000023808766</v>
       </c>
       <c r="AJ3">
-        <v>0.5500000116593765</v>
+        <v>0.550000011659377</v>
       </c>
       <c r="AK3">
-        <v>0.5500000121493875</v>
+        <v>0.5500000121493868</v>
       </c>
       <c r="AL3">
-        <v>7.251392252311684E-13</v>
+        <v>6.900604424749159E-13</v>
       </c>
       <c r="AM3">
         <v>-179.9999999938803</v>
@@ -1206,13 +1206,13 @@
         <v>179.9999999938735</v>
       </c>
       <c r="AO3">
-        <v>7.082758124159204E-13</v>
+        <v>6.817262890806854E-13</v>
       </c>
       <c r="AP3">
         <v>-179.9999999952994</v>
       </c>
       <c r="AQ3">
-        <v>179.9999999952925</v>
+        <v>179.9999999952927</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -1256,40 +1256,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-2.605323420844159E-14</v>
+        <v>-5.210646841688246E-15</v>
       </c>
       <c r="O4">
-        <v>2.049494803798653E-19</v>
+        <v>2.605528369090769E-15</v>
       </c>
       <c r="P4">
-        <v>2.084279255501348E-14</v>
+        <v>5.210852021331813E-15</v>
       </c>
       <c r="Q4">
-        <v>1.56319405250648E-14</v>
+        <v>-5.210646841688558E-15</v>
       </c>
       <c r="R4">
-        <v>2.605166051974046E-15</v>
+        <v>1.042113631187851E-14</v>
       </c>
       <c r="S4">
-        <v>-2.084274497194647E-14</v>
+        <v>-1.563209812607722E-14</v>
       </c>
       <c r="T4">
-        <v>-2.08425873667538E-14</v>
+        <v>-1.042129368337681E-14</v>
       </c>
       <c r="U4">
         <v>-1.921126409769407E-09</v>
       </c>
       <c r="V4">
-        <v>1.921123806265547E-09</v>
+        <v>1.921134227559233E-09</v>
       </c>
       <c r="W4">
-        <v>2.605323420844206E-14</v>
+        <v>1.563194052506506E-14</v>
       </c>
       <c r="X4">
-        <v>1.921131620470233E-09</v>
+        <v>1.921121199176557E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.921129016858401E-09</v>
+        <v>-1.921139438152087E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1310,40 +1310,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.100000023808765</v>
+        <v>1.100000023808766</v>
       </c>
       <c r="AG4">
-        <v>0.5500000116439206</v>
+        <v>0.5500000116439208</v>
       </c>
       <c r="AH4">
-        <v>0.5500000121648444</v>
+        <v>0.5500000121648434</v>
       </c>
       <c r="AI4">
         <v>1.100000023808766</v>
       </c>
       <c r="AJ4">
-        <v>0.5500000116593765</v>
+        <v>0.550000011659377</v>
       </c>
       <c r="AK4">
-        <v>0.5500000121493875</v>
+        <v>0.5500000121493868</v>
       </c>
       <c r="AL4">
-        <v>7.138106372806309E-13</v>
+        <v>6.900604424749159E-13</v>
       </c>
       <c r="AM4">
         <v>-179.9999999938803</v>
       </c>
       <c r="AN4">
-        <v>179.9999999938734</v>
+        <v>179.9999999938735</v>
       </c>
       <c r="AO4">
-        <v>7.082758124159204E-13</v>
+        <v>6.817262890806854E-13</v>
       </c>
       <c r="AP4">
         <v>-179.9999999952994</v>
       </c>
       <c r="AQ4">
-        <v>179.9999999952925</v>
+        <v>179.9999999952927</v>
       </c>
     </row>
   </sheetData>
@@ -1531,40 +1531,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-1.563194052506537E-14</v>
+        <v>-3.126388105013047E-14</v>
       </c>
       <c r="O2">
-        <v>1.042124982428609E-14</v>
+        <v>1.302657324318456E-14</v>
       </c>
       <c r="P2">
-        <v>-4.453701581637349E-20</v>
+        <v>-5.210691373444642E-15</v>
       </c>
       <c r="Q2">
-        <v>5.210646841688501E-15</v>
+        <v>2.084258736675368E-14</v>
       </c>
       <c r="R2">
-        <v>2.605795522812271E-15</v>
+        <v>4.721031286683035E-19</v>
       </c>
       <c r="S2">
-        <v>4.727894349048249E-19</v>
+        <v>-5.210174064428119E-15</v>
       </c>
       <c r="T2">
-        <v>2.08425873667533E-14</v>
+        <v>2.084258736675312E-14</v>
       </c>
       <c r="U2">
-        <v>5.763410493837118E-09</v>
+        <v>5.763389651249763E-09</v>
       </c>
       <c r="V2">
-        <v>-5.763402682029841E-09</v>
+        <v>-5.763381839442464E-09</v>
       </c>
       <c r="W2">
-        <v>-1.042129368337668E-14</v>
+        <v>-1.563194052506487E-14</v>
       </c>
       <c r="X2">
-        <v>-5.763394861410699E-09</v>
+        <v>-5.763394861410703E-09</v>
       </c>
       <c r="Y2">
-        <v>5.763407893162584E-09</v>
+        <v>5.7633870505752E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -1588,37 +1588,37 @@
         <v>1.100000023808766</v>
       </c>
       <c r="AG2">
-        <v>0.5500000117057459</v>
+        <v>0.5500000117057464</v>
       </c>
       <c r="AH2">
-        <v>0.5500000121030184</v>
+        <v>0.550000012103018</v>
       </c>
       <c r="AI2">
         <v>1.100000023808766</v>
       </c>
       <c r="AJ2">
-        <v>0.5500000116593765</v>
+        <v>0.550000011659377</v>
       </c>
       <c r="AK2">
-        <v>0.5500000121493875</v>
+        <v>0.5500000121493868</v>
       </c>
       <c r="AL2">
-        <v>6.92343595716384E-13</v>
+        <v>6.634117486182683E-13</v>
       </c>
       <c r="AM2">
         <v>-179.9999999995567</v>
       </c>
       <c r="AN2">
-        <v>179.9999999995499</v>
+        <v>179.99999999955</v>
       </c>
       <c r="AO2">
-        <v>7.082758124159204E-13</v>
+        <v>6.817262890806854E-13</v>
       </c>
       <c r="AP2">
         <v>-179.9999999952994</v>
       </c>
       <c r="AQ2">
-        <v>179.9999999952925</v>
+        <v>179.9999999952927</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -1662,40 +1662,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.04212936833772E-14</v>
+        <v>-5.210646841688246E-15</v>
       </c>
       <c r="O3">
-        <v>2.049494803798653E-19</v>
+        <v>2.605528369090769E-15</v>
       </c>
       <c r="P3">
-        <v>4.168537993086173E-14</v>
+        <v>5.210852021331813E-15</v>
       </c>
       <c r="Q3">
-        <v>-1.56319405250657E-14</v>
+        <v>-5.210646841688558E-15</v>
       </c>
       <c r="R3">
-        <v>1.302645973070846E-14</v>
+        <v>1.042113631187851E-14</v>
       </c>
       <c r="S3">
-        <v>-5.210662603514871E-14</v>
+        <v>-1.563209812607722E-14</v>
       </c>
       <c r="T3">
-        <v>-3.647452789181846E-14</v>
+        <v>-1.042129368337681E-14</v>
       </c>
       <c r="U3">
-        <v>-1.921126409769406E-09</v>
+        <v>-1.921126409769407E-09</v>
       </c>
       <c r="V3">
-        <v>1.921123806265545E-09</v>
+        <v>1.921134227559233E-09</v>
       </c>
       <c r="W3">
-        <v>4.689582157519516E-14</v>
+        <v>1.563194052506506E-14</v>
       </c>
       <c r="X3">
-        <v>1.921131620470234E-09</v>
+        <v>1.921121199176557E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.92111859556471E-09</v>
+        <v>-1.921139438152087E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -1716,25 +1716,25 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.100000023808765</v>
+        <v>1.100000023808766</v>
       </c>
       <c r="AG3">
-        <v>0.5500000116439205</v>
+        <v>0.5500000116439208</v>
       </c>
       <c r="AH3">
-        <v>0.5500000121648446</v>
+        <v>0.5500000121648434</v>
       </c>
       <c r="AI3">
         <v>1.100000023808766</v>
       </c>
       <c r="AJ3">
-        <v>0.5500000116593765</v>
+        <v>0.550000011659377</v>
       </c>
       <c r="AK3">
-        <v>0.5500000121493875</v>
+        <v>0.5500000121493868</v>
       </c>
       <c r="AL3">
-        <v>7.251392252311684E-13</v>
+        <v>6.900604424749159E-13</v>
       </c>
       <c r="AM3">
         <v>-179.9999999938803</v>
@@ -1743,13 +1743,13 @@
         <v>179.9999999938735</v>
       </c>
       <c r="AO3">
-        <v>7.082758124159204E-13</v>
+        <v>6.817262890806854E-13</v>
       </c>
       <c r="AP3">
         <v>-179.9999999952994</v>
       </c>
       <c r="AQ3">
-        <v>179.9999999952925</v>
+        <v>179.9999999952927</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -1793,40 +1793,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-2.605323420844159E-14</v>
+        <v>-5.210646841688246E-15</v>
       </c>
       <c r="O4">
-        <v>2.049494803798653E-19</v>
+        <v>2.605528369090769E-15</v>
       </c>
       <c r="P4">
-        <v>2.084279255501348E-14</v>
+        <v>5.210852021331813E-15</v>
       </c>
       <c r="Q4">
-        <v>1.56319405250648E-14</v>
+        <v>-5.210646841688558E-15</v>
       </c>
       <c r="R4">
-        <v>2.605166051974046E-15</v>
+        <v>1.042113631187851E-14</v>
       </c>
       <c r="S4">
-        <v>-2.084274497194647E-14</v>
+        <v>-1.563209812607722E-14</v>
       </c>
       <c r="T4">
-        <v>-2.08425873667538E-14</v>
+        <v>-1.042129368337681E-14</v>
       </c>
       <c r="U4">
         <v>-1.921126409769407E-09</v>
       </c>
       <c r="V4">
-        <v>1.921123806265547E-09</v>
+        <v>1.921134227559233E-09</v>
       </c>
       <c r="W4">
-        <v>2.605323420844206E-14</v>
+        <v>1.563194052506506E-14</v>
       </c>
       <c r="X4">
-        <v>1.921131620470233E-09</v>
+        <v>1.921121199176557E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.921129016858401E-09</v>
+        <v>-1.921139438152087E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1847,40 +1847,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.100000023808765</v>
+        <v>1.100000023808766</v>
       </c>
       <c r="AG4">
-        <v>0.5500000116439206</v>
+        <v>0.5500000116439208</v>
       </c>
       <c r="AH4">
-        <v>0.5500000121648444</v>
+        <v>0.5500000121648434</v>
       </c>
       <c r="AI4">
         <v>1.100000023808766</v>
       </c>
       <c r="AJ4">
-        <v>0.5500000116593765</v>
+        <v>0.550000011659377</v>
       </c>
       <c r="AK4">
-        <v>0.5500000121493875</v>
+        <v>0.5500000121493868</v>
       </c>
       <c r="AL4">
-        <v>7.138106372806309E-13</v>
+        <v>6.900604424749159E-13</v>
       </c>
       <c r="AM4">
         <v>-179.9999999938803</v>
       </c>
       <c r="AN4">
-        <v>179.9999999938734</v>
+        <v>179.9999999938735</v>
       </c>
       <c r="AO4">
-        <v>7.082758124159204E-13</v>
+        <v>6.817262890806854E-13</v>
       </c>
       <c r="AP4">
         <v>-179.9999999952994</v>
       </c>
       <c r="AQ4">
-        <v>179.9999999952925</v>
+        <v>179.9999999952927</v>
       </c>
     </row>
   </sheetData>
@@ -2068,40 +2068,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-1.563194052506537E-14</v>
+        <v>-3.126388105013047E-14</v>
       </c>
       <c r="O2">
-        <v>1.042124982428609E-14</v>
+        <v>1.302657324318456E-14</v>
       </c>
       <c r="P2">
-        <v>-4.453701581637349E-20</v>
+        <v>-5.210691373444642E-15</v>
       </c>
       <c r="Q2">
-        <v>5.210646841688501E-15</v>
+        <v>2.084258736675368E-14</v>
       </c>
       <c r="R2">
-        <v>2.605795522812271E-15</v>
+        <v>4.721031286683035E-19</v>
       </c>
       <c r="S2">
-        <v>4.727894349048249E-19</v>
+        <v>-5.210174064428119E-15</v>
       </c>
       <c r="T2">
-        <v>2.08425873667533E-14</v>
+        <v>2.084258736675312E-14</v>
       </c>
       <c r="U2">
-        <v>5.763410493837118E-09</v>
+        <v>5.763389651249763E-09</v>
       </c>
       <c r="V2">
-        <v>-5.763402682029841E-09</v>
+        <v>-5.763381839442464E-09</v>
       </c>
       <c r="W2">
-        <v>-1.042129368337668E-14</v>
+        <v>-1.563194052506487E-14</v>
       </c>
       <c r="X2">
-        <v>-5.763394861410699E-09</v>
+        <v>-5.763394861410703E-09</v>
       </c>
       <c r="Y2">
-        <v>5.763407893162584E-09</v>
+        <v>5.7633870505752E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -2125,37 +2125,37 @@
         <v>1.100000023808766</v>
       </c>
       <c r="AG2">
-        <v>0.5500000117057459</v>
+        <v>0.5500000117057464</v>
       </c>
       <c r="AH2">
-        <v>0.5500000121030184</v>
+        <v>0.550000012103018</v>
       </c>
       <c r="AI2">
         <v>1.100000023808766</v>
       </c>
       <c r="AJ2">
-        <v>0.5500000116593765</v>
+        <v>0.550000011659377</v>
       </c>
       <c r="AK2">
-        <v>0.5500000121493875</v>
+        <v>0.5500000121493868</v>
       </c>
       <c r="AL2">
-        <v>6.92343595716384E-13</v>
+        <v>6.634117486182683E-13</v>
       </c>
       <c r="AM2">
         <v>-179.9999999995567</v>
       </c>
       <c r="AN2">
-        <v>179.9999999995499</v>
+        <v>179.99999999955</v>
       </c>
       <c r="AO2">
-        <v>7.082758124159204E-13</v>
+        <v>6.817262890806854E-13</v>
       </c>
       <c r="AP2">
         <v>-179.9999999952994</v>
       </c>
       <c r="AQ2">
-        <v>179.9999999952925</v>
+        <v>179.9999999952927</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -2199,40 +2199,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.04212936833772E-14</v>
+        <v>-5.210646841688246E-15</v>
       </c>
       <c r="O3">
-        <v>2.049494803798653E-19</v>
+        <v>2.605528369090769E-15</v>
       </c>
       <c r="P3">
-        <v>4.168537993086173E-14</v>
+        <v>5.210852021331813E-15</v>
       </c>
       <c r="Q3">
-        <v>-1.56319405250657E-14</v>
+        <v>-5.210646841688558E-15</v>
       </c>
       <c r="R3">
-        <v>1.302645973070846E-14</v>
+        <v>1.042113631187851E-14</v>
       </c>
       <c r="S3">
-        <v>-5.210662603514871E-14</v>
+        <v>-1.563209812607722E-14</v>
       </c>
       <c r="T3">
-        <v>-3.647452789181846E-14</v>
+        <v>-1.042129368337681E-14</v>
       </c>
       <c r="U3">
-        <v>-1.921126409769406E-09</v>
+        <v>-1.921126409769407E-09</v>
       </c>
       <c r="V3">
-        <v>1.921123806265545E-09</v>
+        <v>1.921134227559233E-09</v>
       </c>
       <c r="W3">
-        <v>4.689582157519516E-14</v>
+        <v>1.563194052506506E-14</v>
       </c>
       <c r="X3">
-        <v>1.921131620470234E-09</v>
+        <v>1.921121199176557E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.92111859556471E-09</v>
+        <v>-1.921139438152087E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -2253,25 +2253,25 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.100000023808765</v>
+        <v>1.100000023808766</v>
       </c>
       <c r="AG3">
-        <v>0.5500000116439205</v>
+        <v>0.5500000116439208</v>
       </c>
       <c r="AH3">
-        <v>0.5500000121648446</v>
+        <v>0.5500000121648434</v>
       </c>
       <c r="AI3">
         <v>1.100000023808766</v>
       </c>
       <c r="AJ3">
-        <v>0.5500000116593765</v>
+        <v>0.550000011659377</v>
       </c>
       <c r="AK3">
-        <v>0.5500000121493875</v>
+        <v>0.5500000121493868</v>
       </c>
       <c r="AL3">
-        <v>7.251392252311684E-13</v>
+        <v>6.900604424749159E-13</v>
       </c>
       <c r="AM3">
         <v>-179.9999999938803</v>
@@ -2280,13 +2280,13 @@
         <v>179.9999999938735</v>
       </c>
       <c r="AO3">
-        <v>7.082758124159204E-13</v>
+        <v>6.817262890806854E-13</v>
       </c>
       <c r="AP3">
         <v>-179.9999999952994</v>
       </c>
       <c r="AQ3">
-        <v>179.9999999952925</v>
+        <v>179.9999999952927</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -2330,40 +2330,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-2.605323420844159E-14</v>
+        <v>-5.210646841688246E-15</v>
       </c>
       <c r="O4">
-        <v>2.049494803798653E-19</v>
+        <v>2.605528369090769E-15</v>
       </c>
       <c r="P4">
-        <v>2.084279255501348E-14</v>
+        <v>5.210852021331813E-15</v>
       </c>
       <c r="Q4">
-        <v>1.56319405250648E-14</v>
+        <v>-5.210646841688558E-15</v>
       </c>
       <c r="R4">
-        <v>2.605166051974046E-15</v>
+        <v>1.042113631187851E-14</v>
       </c>
       <c r="S4">
-        <v>-2.084274497194647E-14</v>
+        <v>-1.563209812607722E-14</v>
       </c>
       <c r="T4">
-        <v>-2.08425873667538E-14</v>
+        <v>-1.042129368337681E-14</v>
       </c>
       <c r="U4">
         <v>-1.921126409769407E-09</v>
       </c>
       <c r="V4">
-        <v>1.921123806265547E-09</v>
+        <v>1.921134227559233E-09</v>
       </c>
       <c r="W4">
-        <v>2.605323420844206E-14</v>
+        <v>1.563194052506506E-14</v>
       </c>
       <c r="X4">
-        <v>1.921131620470233E-09</v>
+        <v>1.921121199176557E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.921129016858401E-09</v>
+        <v>-1.921139438152087E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -2384,40 +2384,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.100000023808765</v>
+        <v>1.100000023808766</v>
       </c>
       <c r="AG4">
-        <v>0.5500000116439206</v>
+        <v>0.5500000116439208</v>
       </c>
       <c r="AH4">
-        <v>0.5500000121648444</v>
+        <v>0.5500000121648434</v>
       </c>
       <c r="AI4">
         <v>1.100000023808766</v>
       </c>
       <c r="AJ4">
-        <v>0.5500000116593765</v>
+        <v>0.550000011659377</v>
       </c>
       <c r="AK4">
-        <v>0.5500000121493875</v>
+        <v>0.5500000121493868</v>
       </c>
       <c r="AL4">
-        <v>7.138106372806309E-13</v>
+        <v>6.900604424749159E-13</v>
       </c>
       <c r="AM4">
         <v>-179.9999999938803</v>
       </c>
       <c r="AN4">
-        <v>179.9999999938734</v>
+        <v>179.9999999938735</v>
       </c>
       <c r="AO4">
-        <v>7.082758124159204E-13</v>
+        <v>6.817262890806854E-13</v>
       </c>
       <c r="AP4">
         <v>-179.9999999952994</v>
       </c>
       <c r="AQ4">
-        <v>179.9999999952925</v>
+        <v>179.9999999952927</v>
       </c>
     </row>
   </sheetData>
@@ -2605,40 +2605,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-9.4739031434715E-15</v>
+        <v>-1.184237892933911E-14</v>
       </c>
       <c r="O2">
-        <v>-4.737053885524563E-15</v>
+        <v>-7.105529669314274E-15</v>
       </c>
       <c r="P2">
-        <v>-4.737054459106166E-15</v>
+        <v>4.736848684663891E-15</v>
       </c>
       <c r="Q2">
-        <v>7.105427357603597E-15</v>
+        <v>1.184237892933911E-14</v>
       </c>
       <c r="R2">
-        <v>9.474684983688495E-15</v>
+        <v>8.290447082998757E-15</v>
       </c>
       <c r="S2">
-        <v>7.106209777079265E-15</v>
+        <v>7.824255121467178E-19</v>
       </c>
       <c r="T2">
-        <v>9.473903143471265E-15</v>
+        <v>-9.473903143471533E-15</v>
       </c>
       <c r="U2">
-        <v>4.763111385045242E-09</v>
+        <v>4.763104279617889E-09</v>
       </c>
       <c r="V2">
-        <v>-4.763113757011745E-09</v>
+        <v>-4.763113757011748E-09</v>
       </c>
       <c r="W2">
-        <v>-4.736951571735602E-15</v>
+        <v>9.473903143471541E-15</v>
       </c>
       <c r="X2">
-        <v>-4.763116121595246E-09</v>
+        <v>-4.763104279216326E-09</v>
       </c>
       <c r="Y2">
-        <v>4.763113757413309E-09</v>
+        <v>4.763118494364886E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -2662,37 +2662,37 @@
         <v>1.000000000000357</v>
       </c>
       <c r="AG2">
-        <v>0.499999999816962</v>
+        <v>0.4999999998169623</v>
       </c>
       <c r="AH2">
-        <v>0.5000000001833945</v>
+        <v>0.5000000001833947</v>
       </c>
       <c r="AI2">
         <v>1.000000000000357</v>
       </c>
       <c r="AJ2">
-        <v>0.4999999997748085</v>
+        <v>0.4999999997748089</v>
       </c>
       <c r="AK2">
-        <v>0.5000000002255481</v>
+        <v>0.5000000002255482</v>
       </c>
       <c r="AL2">
-        <v>7.187676407683538E-13</v>
+        <v>7.241108514119259E-13</v>
       </c>
       <c r="AM2">
         <v>-179.999999998762</v>
       </c>
       <c r="AN2">
-        <v>179.9999999987551</v>
+        <v>179.999999998755</v>
       </c>
       <c r="AO2">
-        <v>7.315388087776645E-13</v>
+        <v>7.537526416724309E-13</v>
       </c>
       <c r="AP2">
-        <v>-179.9999999905878</v>
+        <v>-179.9999999905879</v>
       </c>
       <c r="AQ2">
-        <v>179.999999990581</v>
+        <v>179.9999999905809</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -2736,40 +2736,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.894780628694277E-14</v>
+        <v>-4.736951571735874E-15</v>
       </c>
       <c r="O3">
-        <v>9.474239263630073E-15</v>
+        <v>2.368811902448431E-15</v>
       </c>
       <c r="P3">
-        <v>3.363111517505249E-19</v>
+        <v>3.36310907692738E-19</v>
       </c>
       <c r="Q3">
-        <v>-1.894780628694283E-14</v>
+        <v>4.736951571735817E-15</v>
       </c>
       <c r="R3">
-        <v>-9.474163757140443E-15</v>
+        <v>-1.184498505502789E-15</v>
       </c>
       <c r="S3">
-        <v>2.368214979436085E-15</v>
+        <v>4.736690764329272E-15</v>
       </c>
       <c r="T3">
-        <v>2.40474432886885E-28</v>
+        <v>1.421085471520701E-14</v>
       </c>
       <c r="U3">
-        <v>-1.58772905857831E-09</v>
+        <v>-1.587707742296249E-09</v>
       </c>
       <c r="V3">
-        <v>1.58771721771992E-09</v>
+        <v>1.587707743816772E-09</v>
       </c>
       <c r="W3">
-        <v>4.73695157173545E-15</v>
+        <v>-9.473903143471321E-15</v>
       </c>
       <c r="X3">
-        <v>1.587724321671359E-09</v>
+        <v>1.587707742340868E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.587717217675301E-09</v>
+        <v>-1.587712480723728E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -2793,37 +2793,37 @@
         <v>1.000000000000357</v>
       </c>
       <c r="AG3">
-        <v>0.4999999997607574</v>
+        <v>0.4999999997607576</v>
       </c>
       <c r="AH3">
-        <v>0.5000000002395996</v>
+        <v>0.5000000002395995</v>
       </c>
       <c r="AI3">
         <v>1.000000000000357</v>
       </c>
       <c r="AJ3">
-        <v>0.4999999997748085</v>
+        <v>0.4999999997748089</v>
       </c>
       <c r="AK3">
-        <v>0.5000000002255481</v>
+        <v>0.5000000002255482</v>
       </c>
       <c r="AL3">
-        <v>7.271643944721282E-13</v>
+        <v>7.291768038735252E-13</v>
       </c>
       <c r="AM3">
-        <v>-179.9999999878631</v>
+        <v>-179.9999999878632</v>
       </c>
       <c r="AN3">
-        <v>179.9999999878563</v>
+        <v>179.9999999878562</v>
       </c>
       <c r="AO3">
-        <v>7.315388087776645E-13</v>
+        <v>7.537526416724309E-13</v>
       </c>
       <c r="AP3">
-        <v>-179.9999999905878</v>
+        <v>-179.9999999905879</v>
       </c>
       <c r="AQ3">
-        <v>179.999999990581</v>
+        <v>179.9999999905809</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -2867,40 +2867,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>4.736951571735751E-15</v>
+        <v>-4.736951571735874E-15</v>
       </c>
       <c r="O4">
-        <v>-4.736615447835519E-15</v>
+        <v>2.368811902448431E-15</v>
       </c>
       <c r="P4">
-        <v>4.737287880437079E-15</v>
+        <v>3.36310907692738E-19</v>
       </c>
       <c r="Q4">
-        <v>-4.736951571735812E-15</v>
+        <v>4.736951571735817E-15</v>
       </c>
       <c r="R4">
-        <v>4.736690953216334E-15</v>
+        <v>-1.184498505502789E-15</v>
       </c>
       <c r="S4">
-        <v>-2.368736591322263E-15</v>
+        <v>4.736690764329272E-15</v>
       </c>
       <c r="T4">
-        <v>-4.736951571735632E-15</v>
+        <v>1.421085471520701E-14</v>
       </c>
       <c r="U4">
-        <v>-1.587719584675174E-09</v>
+        <v>-1.587707742296249E-09</v>
       </c>
       <c r="V4">
-        <v>1.587698269913623E-09</v>
+        <v>1.587707743816772E-09</v>
       </c>
       <c r="W4">
-        <v>9.473903143471321E-15</v>
+        <v>-9.473903143471321E-15</v>
       </c>
       <c r="X4">
-        <v>1.587714847768223E-09</v>
+        <v>1.587707742340868E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.587698269869005E-09</v>
+        <v>-1.587712480723728E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>1.000000000000357</v>
       </c>
       <c r="AG4">
-        <v>0.4999999997607573</v>
+        <v>0.4999999997607576</v>
       </c>
       <c r="AH4">
         <v>0.5000000002395995</v>
@@ -2933,28 +2933,28 @@
         <v>1.000000000000357</v>
       </c>
       <c r="AJ4">
-        <v>0.4999999997748085</v>
+        <v>0.4999999997748089</v>
       </c>
       <c r="AK4">
-        <v>0.5000000002255481</v>
+        <v>0.5000000002255482</v>
       </c>
       <c r="AL4">
-        <v>7.271643765637189E-13</v>
+        <v>7.291768038735252E-13</v>
       </c>
       <c r="AM4">
-        <v>-179.9999999878631</v>
+        <v>-179.9999999878632</v>
       </c>
       <c r="AN4">
-        <v>179.9999999878563</v>
+        <v>179.9999999878562</v>
       </c>
       <c r="AO4">
-        <v>7.315388087776645E-13</v>
+        <v>7.537526416724309E-13</v>
       </c>
       <c r="AP4">
-        <v>-179.9999999905878</v>
+        <v>-179.9999999905879</v>
       </c>
       <c r="AQ4">
-        <v>179.999999990581</v>
+        <v>179.9999999905809</v>
       </c>
     </row>
   </sheetData>
@@ -3142,40 +3142,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-9.4739031434715E-15</v>
+        <v>-1.184237892933911E-14</v>
       </c>
       <c r="O2">
-        <v>-4.737053885524563E-15</v>
+        <v>-7.105529669314274E-15</v>
       </c>
       <c r="P2">
-        <v>-4.737054459106166E-15</v>
+        <v>4.736848684663891E-15</v>
       </c>
       <c r="Q2">
-        <v>7.105427357603597E-15</v>
+        <v>1.184237892933911E-14</v>
       </c>
       <c r="R2">
-        <v>9.474684983688495E-15</v>
+        <v>8.290447082998757E-15</v>
       </c>
       <c r="S2">
-        <v>7.106209777079265E-15</v>
+        <v>7.824255121467178E-19</v>
       </c>
       <c r="T2">
-        <v>9.473903143471265E-15</v>
+        <v>-9.473903143471533E-15</v>
       </c>
       <c r="U2">
-        <v>4.763111385045242E-09</v>
+        <v>4.763104279617889E-09</v>
       </c>
       <c r="V2">
-        <v>-4.763113757011745E-09</v>
+        <v>-4.763113757011748E-09</v>
       </c>
       <c r="W2">
-        <v>-4.736951571735602E-15</v>
+        <v>9.473903143471541E-15</v>
       </c>
       <c r="X2">
-        <v>-4.763116121595246E-09</v>
+        <v>-4.763104279216326E-09</v>
       </c>
       <c r="Y2">
-        <v>4.763113757413309E-09</v>
+        <v>4.763118494364886E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -3199,37 +3199,37 @@
         <v>1.000000000000357</v>
       </c>
       <c r="AG2">
-        <v>0.499999999816962</v>
+        <v>0.4999999998169623</v>
       </c>
       <c r="AH2">
-        <v>0.5000000001833945</v>
+        <v>0.5000000001833947</v>
       </c>
       <c r="AI2">
         <v>1.000000000000357</v>
       </c>
       <c r="AJ2">
-        <v>0.4999999997748085</v>
+        <v>0.4999999997748089</v>
       </c>
       <c r="AK2">
-        <v>0.5000000002255481</v>
+        <v>0.5000000002255482</v>
       </c>
       <c r="AL2">
-        <v>7.187676407683538E-13</v>
+        <v>7.241108514119259E-13</v>
       </c>
       <c r="AM2">
         <v>-179.999999998762</v>
       </c>
       <c r="AN2">
-        <v>179.9999999987551</v>
+        <v>179.999999998755</v>
       </c>
       <c r="AO2">
-        <v>7.315388087776645E-13</v>
+        <v>7.537526416724309E-13</v>
       </c>
       <c r="AP2">
-        <v>-179.9999999905878</v>
+        <v>-179.9999999905879</v>
       </c>
       <c r="AQ2">
-        <v>179.999999990581</v>
+        <v>179.9999999905809</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -3273,40 +3273,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.894780628694277E-14</v>
+        <v>-4.736951571735874E-15</v>
       </c>
       <c r="O3">
-        <v>9.474239263630073E-15</v>
+        <v>2.368811902448431E-15</v>
       </c>
       <c r="P3">
-        <v>3.363111517505249E-19</v>
+        <v>3.36310907692738E-19</v>
       </c>
       <c r="Q3">
-        <v>-1.894780628694283E-14</v>
+        <v>4.736951571735817E-15</v>
       </c>
       <c r="R3">
-        <v>-9.474163757140443E-15</v>
+        <v>-1.184498505502789E-15</v>
       </c>
       <c r="S3">
-        <v>2.368214979436085E-15</v>
+        <v>4.736690764329272E-15</v>
       </c>
       <c r="T3">
-        <v>2.40474432886885E-28</v>
+        <v>1.421085471520701E-14</v>
       </c>
       <c r="U3">
-        <v>-1.58772905857831E-09</v>
+        <v>-1.587707742296249E-09</v>
       </c>
       <c r="V3">
-        <v>1.58771721771992E-09</v>
+        <v>1.587707743816772E-09</v>
       </c>
       <c r="W3">
-        <v>4.73695157173545E-15</v>
+        <v>-9.473903143471321E-15</v>
       </c>
       <c r="X3">
-        <v>1.587724321671359E-09</v>
+        <v>1.587707742340868E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.587717217675301E-09</v>
+        <v>-1.587712480723728E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -3330,37 +3330,37 @@
         <v>1.000000000000357</v>
       </c>
       <c r="AG3">
-        <v>0.4999999997607574</v>
+        <v>0.4999999997607576</v>
       </c>
       <c r="AH3">
-        <v>0.5000000002395996</v>
+        <v>0.5000000002395995</v>
       </c>
       <c r="AI3">
         <v>1.000000000000357</v>
       </c>
       <c r="AJ3">
-        <v>0.4999999997748085</v>
+        <v>0.4999999997748089</v>
       </c>
       <c r="AK3">
-        <v>0.5000000002255481</v>
+        <v>0.5000000002255482</v>
       </c>
       <c r="AL3">
-        <v>7.271643944721282E-13</v>
+        <v>7.291768038735252E-13</v>
       </c>
       <c r="AM3">
-        <v>-179.9999999878631</v>
+        <v>-179.9999999878632</v>
       </c>
       <c r="AN3">
-        <v>179.9999999878563</v>
+        <v>179.9999999878562</v>
       </c>
       <c r="AO3">
-        <v>7.315388087776645E-13</v>
+        <v>7.537526416724309E-13</v>
       </c>
       <c r="AP3">
-        <v>-179.9999999905878</v>
+        <v>-179.9999999905879</v>
       </c>
       <c r="AQ3">
-        <v>179.999999990581</v>
+        <v>179.9999999905809</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -3404,40 +3404,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>4.736951571735751E-15</v>
+        <v>-4.736951571735874E-15</v>
       </c>
       <c r="O4">
-        <v>-4.736615447835519E-15</v>
+        <v>2.368811902448431E-15</v>
       </c>
       <c r="P4">
-        <v>4.737287880437079E-15</v>
+        <v>3.36310907692738E-19</v>
       </c>
       <c r="Q4">
-        <v>-4.736951571735812E-15</v>
+        <v>4.736951571735817E-15</v>
       </c>
       <c r="R4">
-        <v>4.736690953216334E-15</v>
+        <v>-1.184498505502789E-15</v>
       </c>
       <c r="S4">
-        <v>-2.368736591322263E-15</v>
+        <v>4.736690764329272E-15</v>
       </c>
       <c r="T4">
-        <v>-4.736951571735632E-15</v>
+        <v>1.421085471520701E-14</v>
       </c>
       <c r="U4">
-        <v>-1.587719584675174E-09</v>
+        <v>-1.587707742296249E-09</v>
       </c>
       <c r="V4">
-        <v>1.587698269913623E-09</v>
+        <v>1.587707743816772E-09</v>
       </c>
       <c r="W4">
-        <v>9.473903143471321E-15</v>
+        <v>-9.473903143471321E-15</v>
       </c>
       <c r="X4">
-        <v>1.587714847768223E-09</v>
+        <v>1.587707742340868E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.587698269869005E-09</v>
+        <v>-1.587712480723728E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -3461,7 +3461,7 @@
         <v>1.000000000000357</v>
       </c>
       <c r="AG4">
-        <v>0.4999999997607573</v>
+        <v>0.4999999997607576</v>
       </c>
       <c r="AH4">
         <v>0.5000000002395995</v>
@@ -3470,28 +3470,28 @@
         <v>1.000000000000357</v>
       </c>
       <c r="AJ4">
-        <v>0.4999999997748085</v>
+        <v>0.4999999997748089</v>
       </c>
       <c r="AK4">
-        <v>0.5000000002255481</v>
+        <v>0.5000000002255482</v>
       </c>
       <c r="AL4">
-        <v>7.271643765637189E-13</v>
+        <v>7.291768038735252E-13</v>
       </c>
       <c r="AM4">
-        <v>-179.9999999878631</v>
+        <v>-179.9999999878632</v>
       </c>
       <c r="AN4">
-        <v>179.9999999878563</v>
+        <v>179.9999999878562</v>
       </c>
       <c r="AO4">
-        <v>7.315388087776645E-13</v>
+        <v>7.537526416724309E-13</v>
       </c>
       <c r="AP4">
-        <v>-179.9999999905878</v>
+        <v>-179.9999999905879</v>
       </c>
       <c r="AQ4">
-        <v>179.999999990581</v>
+        <v>179.9999999905809</v>
       </c>
     </row>
   </sheetData>
@@ -3679,40 +3679,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-9.4739031434715E-15</v>
+        <v>-1.184237892933911E-14</v>
       </c>
       <c r="O2">
-        <v>-4.737053885524563E-15</v>
+        <v>-7.105529669314274E-15</v>
       </c>
       <c r="P2">
-        <v>-4.737054459106166E-15</v>
+        <v>4.736848684663891E-15</v>
       </c>
       <c r="Q2">
-        <v>7.105427357603597E-15</v>
+        <v>1.184237892933911E-14</v>
       </c>
       <c r="R2">
-        <v>9.474684983688495E-15</v>
+        <v>8.290447082998757E-15</v>
       </c>
       <c r="S2">
-        <v>7.106209777079265E-15</v>
+        <v>7.824255121467178E-19</v>
       </c>
       <c r="T2">
-        <v>9.473903143471265E-15</v>
+        <v>-9.473903143471533E-15</v>
       </c>
       <c r="U2">
-        <v>4.763111385045242E-09</v>
+        <v>4.763104279617889E-09</v>
       </c>
       <c r="V2">
-        <v>-4.763113757011745E-09</v>
+        <v>-4.763113757011748E-09</v>
       </c>
       <c r="W2">
-        <v>-4.736951571735602E-15</v>
+        <v>9.473903143471541E-15</v>
       </c>
       <c r="X2">
-        <v>-4.763116121595246E-09</v>
+        <v>-4.763104279216326E-09</v>
       </c>
       <c r="Y2">
-        <v>4.763113757413309E-09</v>
+        <v>4.763118494364886E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -3736,37 +3736,37 @@
         <v>1.000000000000357</v>
       </c>
       <c r="AG2">
-        <v>0.499999999816962</v>
+        <v>0.4999999998169623</v>
       </c>
       <c r="AH2">
-        <v>0.5000000001833945</v>
+        <v>0.5000000001833947</v>
       </c>
       <c r="AI2">
         <v>1.000000000000357</v>
       </c>
       <c r="AJ2">
-        <v>0.4999999997748085</v>
+        <v>0.4999999997748089</v>
       </c>
       <c r="AK2">
-        <v>0.5000000002255481</v>
+        <v>0.5000000002255482</v>
       </c>
       <c r="AL2">
-        <v>7.187676407683538E-13</v>
+        <v>7.241108514119259E-13</v>
       </c>
       <c r="AM2">
         <v>-179.999999998762</v>
       </c>
       <c r="AN2">
-        <v>179.9999999987551</v>
+        <v>179.999999998755</v>
       </c>
       <c r="AO2">
-        <v>7.315388087776645E-13</v>
+        <v>7.537526416724309E-13</v>
       </c>
       <c r="AP2">
-        <v>-179.9999999905878</v>
+        <v>-179.9999999905879</v>
       </c>
       <c r="AQ2">
-        <v>179.999999990581</v>
+        <v>179.9999999905809</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -3810,40 +3810,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.894780628694277E-14</v>
+        <v>-4.736951571735874E-15</v>
       </c>
       <c r="O3">
-        <v>9.474239263630073E-15</v>
+        <v>2.368811902448431E-15</v>
       </c>
       <c r="P3">
-        <v>3.363111517505249E-19</v>
+        <v>3.36310907692738E-19</v>
       </c>
       <c r="Q3">
-        <v>-1.894780628694283E-14</v>
+        <v>4.736951571735817E-15</v>
       </c>
       <c r="R3">
-        <v>-9.474163757140443E-15</v>
+        <v>-1.184498505502789E-15</v>
       </c>
       <c r="S3">
-        <v>2.368214979436085E-15</v>
+        <v>4.736690764329272E-15</v>
       </c>
       <c r="T3">
-        <v>2.40474432886885E-28</v>
+        <v>1.421085471520701E-14</v>
       </c>
       <c r="U3">
-        <v>-1.58772905857831E-09</v>
+        <v>-1.587707742296249E-09</v>
       </c>
       <c r="V3">
-        <v>1.58771721771992E-09</v>
+        <v>1.587707743816772E-09</v>
       </c>
       <c r="W3">
-        <v>4.73695157173545E-15</v>
+        <v>-9.473903143471321E-15</v>
       </c>
       <c r="X3">
-        <v>1.587724321671359E-09</v>
+        <v>1.587707742340868E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.587717217675301E-09</v>
+        <v>-1.587712480723728E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -3867,37 +3867,37 @@
         <v>1.000000000000357</v>
       </c>
       <c r="AG3">
-        <v>0.4999999997607574</v>
+        <v>0.4999999997607576</v>
       </c>
       <c r="AH3">
-        <v>0.5000000002395996</v>
+        <v>0.5000000002395995</v>
       </c>
       <c r="AI3">
         <v>1.000000000000357</v>
       </c>
       <c r="AJ3">
-        <v>0.4999999997748085</v>
+        <v>0.4999999997748089</v>
       </c>
       <c r="AK3">
-        <v>0.5000000002255481</v>
+        <v>0.5000000002255482</v>
       </c>
       <c r="AL3">
-        <v>7.271643944721282E-13</v>
+        <v>7.291768038735252E-13</v>
       </c>
       <c r="AM3">
-        <v>-179.9999999878631</v>
+        <v>-179.9999999878632</v>
       </c>
       <c r="AN3">
-        <v>179.9999999878563</v>
+        <v>179.9999999878562</v>
       </c>
       <c r="AO3">
-        <v>7.315388087776645E-13</v>
+        <v>7.537526416724309E-13</v>
       </c>
       <c r="AP3">
-        <v>-179.9999999905878</v>
+        <v>-179.9999999905879</v>
       </c>
       <c r="AQ3">
-        <v>179.999999990581</v>
+        <v>179.9999999905809</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -3941,40 +3941,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>4.736951571735751E-15</v>
+        <v>-4.736951571735874E-15</v>
       </c>
       <c r="O4">
-        <v>-4.736615447835519E-15</v>
+        <v>2.368811902448431E-15</v>
       </c>
       <c r="P4">
-        <v>4.737287880437079E-15</v>
+        <v>3.36310907692738E-19</v>
       </c>
       <c r="Q4">
-        <v>-4.736951571735812E-15</v>
+        <v>4.736951571735817E-15</v>
       </c>
       <c r="R4">
-        <v>4.736690953216334E-15</v>
+        <v>-1.184498505502789E-15</v>
       </c>
       <c r="S4">
-        <v>-2.368736591322263E-15</v>
+        <v>4.736690764329272E-15</v>
       </c>
       <c r="T4">
-        <v>-4.736951571735632E-15</v>
+        <v>1.421085471520701E-14</v>
       </c>
       <c r="U4">
-        <v>-1.587719584675174E-09</v>
+        <v>-1.587707742296249E-09</v>
       </c>
       <c r="V4">
-        <v>1.587698269913623E-09</v>
+        <v>1.587707743816772E-09</v>
       </c>
       <c r="W4">
-        <v>9.473903143471321E-15</v>
+        <v>-9.473903143471321E-15</v>
       </c>
       <c r="X4">
-        <v>1.587714847768223E-09</v>
+        <v>1.587707742340868E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.587698269869005E-09</v>
+        <v>-1.587712480723728E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -3998,7 +3998,7 @@
         <v>1.000000000000357</v>
       </c>
       <c r="AG4">
-        <v>0.4999999997607573</v>
+        <v>0.4999999997607576</v>
       </c>
       <c r="AH4">
         <v>0.5000000002395995</v>
@@ -4007,28 +4007,28 @@
         <v>1.000000000000357</v>
       </c>
       <c r="AJ4">
-        <v>0.4999999997748085</v>
+        <v>0.4999999997748089</v>
       </c>
       <c r="AK4">
-        <v>0.5000000002255481</v>
+        <v>0.5000000002255482</v>
       </c>
       <c r="AL4">
-        <v>7.271643765637189E-13</v>
+        <v>7.291768038735252E-13</v>
       </c>
       <c r="AM4">
-        <v>-179.9999999878631</v>
+        <v>-179.9999999878632</v>
       </c>
       <c r="AN4">
-        <v>179.9999999878563</v>
+        <v>179.9999999878562</v>
       </c>
       <c r="AO4">
-        <v>7.315388087776645E-13</v>
+        <v>7.537526416724309E-13</v>
       </c>
       <c r="AP4">
-        <v>-179.9999999905878</v>
+        <v>-179.9999999905879</v>
       </c>
       <c r="AQ4">
-        <v>179.999999990581</v>
+        <v>179.9999999905809</v>
       </c>
     </row>
   </sheetData>
@@ -4216,40 +4216,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-9.4739031434715E-15</v>
+        <v>-1.184237892933911E-14</v>
       </c>
       <c r="O2">
-        <v>-4.737053885524563E-15</v>
+        <v>-7.105529669314274E-15</v>
       </c>
       <c r="P2">
-        <v>-4.737054459106166E-15</v>
+        <v>4.736848684663891E-15</v>
       </c>
       <c r="Q2">
-        <v>7.105427357603597E-15</v>
+        <v>1.184237892933911E-14</v>
       </c>
       <c r="R2">
-        <v>9.474684983688495E-15</v>
+        <v>8.290447082998757E-15</v>
       </c>
       <c r="S2">
-        <v>7.106209777079265E-15</v>
+        <v>7.824255121467178E-19</v>
       </c>
       <c r="T2">
-        <v>9.473903143471265E-15</v>
+        <v>-9.473903143471533E-15</v>
       </c>
       <c r="U2">
-        <v>4.763111385045242E-09</v>
+        <v>4.763104279617889E-09</v>
       </c>
       <c r="V2">
-        <v>-4.763113757011745E-09</v>
+        <v>-4.763113757011748E-09</v>
       </c>
       <c r="W2">
-        <v>-4.736951571735602E-15</v>
+        <v>9.473903143471541E-15</v>
       </c>
       <c r="X2">
-        <v>-4.763116121595246E-09</v>
+        <v>-4.763104279216326E-09</v>
       </c>
       <c r="Y2">
-        <v>4.763113757413309E-09</v>
+        <v>4.763118494364886E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -4273,37 +4273,37 @@
         <v>1.000000000000357</v>
       </c>
       <c r="AG2">
-        <v>0.499999999816962</v>
+        <v>0.4999999998169623</v>
       </c>
       <c r="AH2">
-        <v>0.5000000001833945</v>
+        <v>0.5000000001833947</v>
       </c>
       <c r="AI2">
         <v>1.000000000000357</v>
       </c>
       <c r="AJ2">
-        <v>0.4999999997748085</v>
+        <v>0.4999999997748089</v>
       </c>
       <c r="AK2">
-        <v>0.5000000002255481</v>
+        <v>0.5000000002255482</v>
       </c>
       <c r="AL2">
-        <v>7.187676407683538E-13</v>
+        <v>7.241108514119259E-13</v>
       </c>
       <c r="AM2">
         <v>-179.999999998762</v>
       </c>
       <c r="AN2">
-        <v>179.9999999987551</v>
+        <v>179.999999998755</v>
       </c>
       <c r="AO2">
-        <v>7.315388087776645E-13</v>
+        <v>7.537526416724309E-13</v>
       </c>
       <c r="AP2">
-        <v>-179.9999999905878</v>
+        <v>-179.9999999905879</v>
       </c>
       <c r="AQ2">
-        <v>179.999999990581</v>
+        <v>179.9999999905809</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -4347,40 +4347,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.894780628694277E-14</v>
+        <v>-4.736951571735874E-15</v>
       </c>
       <c r="O3">
-        <v>9.474239263630073E-15</v>
+        <v>2.368811902448431E-15</v>
       </c>
       <c r="P3">
-        <v>3.363111517505249E-19</v>
+        <v>3.36310907692738E-19</v>
       </c>
       <c r="Q3">
-        <v>-1.894780628694283E-14</v>
+        <v>4.736951571735817E-15</v>
       </c>
       <c r="R3">
-        <v>-9.474163757140443E-15</v>
+        <v>-1.184498505502789E-15</v>
       </c>
       <c r="S3">
-        <v>2.368214979436085E-15</v>
+        <v>4.736690764329272E-15</v>
       </c>
       <c r="T3">
-        <v>2.40474432886885E-28</v>
+        <v>1.421085471520701E-14</v>
       </c>
       <c r="U3">
-        <v>-1.58772905857831E-09</v>
+        <v>-1.587707742296249E-09</v>
       </c>
       <c r="V3">
-        <v>1.58771721771992E-09</v>
+        <v>1.587707743816772E-09</v>
       </c>
       <c r="W3">
-        <v>4.73695157173545E-15</v>
+        <v>-9.473903143471321E-15</v>
       </c>
       <c r="X3">
-        <v>1.587724321671359E-09</v>
+        <v>1.587707742340868E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.587717217675301E-09</v>
+        <v>-1.587712480723728E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -4404,37 +4404,37 @@
         <v>1.000000000000357</v>
       </c>
       <c r="AG3">
-        <v>0.4999999997607574</v>
+        <v>0.4999999997607576</v>
       </c>
       <c r="AH3">
-        <v>0.5000000002395996</v>
+        <v>0.5000000002395995</v>
       </c>
       <c r="AI3">
         <v>1.000000000000357</v>
       </c>
       <c r="AJ3">
-        <v>0.4999999997748085</v>
+        <v>0.4999999997748089</v>
       </c>
       <c r="AK3">
-        <v>0.5000000002255481</v>
+        <v>0.5000000002255482</v>
       </c>
       <c r="AL3">
-        <v>7.271643944721282E-13</v>
+        <v>7.291768038735252E-13</v>
       </c>
       <c r="AM3">
-        <v>-179.9999999878631</v>
+        <v>-179.9999999878632</v>
       </c>
       <c r="AN3">
-        <v>179.9999999878563</v>
+        <v>179.9999999878562</v>
       </c>
       <c r="AO3">
-        <v>7.315388087776645E-13</v>
+        <v>7.537526416724309E-13</v>
       </c>
       <c r="AP3">
-        <v>-179.9999999905878</v>
+        <v>-179.9999999905879</v>
       </c>
       <c r="AQ3">
-        <v>179.999999990581</v>
+        <v>179.9999999905809</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -4478,40 +4478,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>4.736951571735751E-15</v>
+        <v>-4.736951571735874E-15</v>
       </c>
       <c r="O4">
-        <v>-4.736615447835519E-15</v>
+        <v>2.368811902448431E-15</v>
       </c>
       <c r="P4">
-        <v>4.737287880437079E-15</v>
+        <v>3.36310907692738E-19</v>
       </c>
       <c r="Q4">
-        <v>-4.736951571735812E-15</v>
+        <v>4.736951571735817E-15</v>
       </c>
       <c r="R4">
-        <v>4.736690953216334E-15</v>
+        <v>-1.184498505502789E-15</v>
       </c>
       <c r="S4">
-        <v>-2.368736591322263E-15</v>
+        <v>4.736690764329272E-15</v>
       </c>
       <c r="T4">
-        <v>-4.736951571735632E-15</v>
+        <v>1.421085471520701E-14</v>
       </c>
       <c r="U4">
-        <v>-1.587719584675174E-09</v>
+        <v>-1.587707742296249E-09</v>
       </c>
       <c r="V4">
-        <v>1.587698269913623E-09</v>
+        <v>1.587707743816772E-09</v>
       </c>
       <c r="W4">
-        <v>9.473903143471321E-15</v>
+        <v>-9.473903143471321E-15</v>
       </c>
       <c r="X4">
-        <v>1.587714847768223E-09</v>
+        <v>1.587707742340868E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.587698269869005E-09</v>
+        <v>-1.587712480723728E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -4535,7 +4535,7 @@
         <v>1.000000000000357</v>
       </c>
       <c r="AG4">
-        <v>0.4999999997607573</v>
+        <v>0.4999999997607576</v>
       </c>
       <c r="AH4">
         <v>0.5000000002395995</v>
@@ -4544,28 +4544,28 @@
         <v>1.000000000000357</v>
       </c>
       <c r="AJ4">
-        <v>0.4999999997748085</v>
+        <v>0.4999999997748089</v>
       </c>
       <c r="AK4">
-        <v>0.5000000002255481</v>
+        <v>0.5000000002255482</v>
       </c>
       <c r="AL4">
-        <v>7.271643765637189E-13</v>
+        <v>7.291768038735252E-13</v>
       </c>
       <c r="AM4">
-        <v>-179.9999999878631</v>
+        <v>-179.9999999878632</v>
       </c>
       <c r="AN4">
-        <v>179.9999999878563</v>
+        <v>179.9999999878562</v>
       </c>
       <c r="AO4">
-        <v>7.315388087776645E-13</v>
+        <v>7.537526416724309E-13</v>
       </c>
       <c r="AP4">
-        <v>-179.9999999905878</v>
+        <v>-179.9999999905879</v>
       </c>
       <c r="AQ4">
-        <v>179.999999990581</v>
+        <v>179.9999999905809</v>
       </c>
     </row>
   </sheetData>
@@ -4756,40 +4756,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.957781560702302E-09</v>
+        <v>-2.957762889217786E-09</v>
       </c>
       <c r="O2">
-        <v>-7.394846386949858E-10</v>
+        <v>-7.394716204313648E-10</v>
       </c>
       <c r="P2">
-        <v>-7.393878743358001E-10</v>
+        <v>-7.394394196428012E-10</v>
       </c>
       <c r="Q2">
-        <v>2.957780692514936E-09</v>
+        <v>2.957765494794981E-09</v>
       </c>
       <c r="R2">
-        <v>7.394692790451266E-10</v>
+        <v>7.394700155493977E-10</v>
       </c>
       <c r="S2">
-        <v>7.394014120568497E-10</v>
+        <v>7.394484448113158E-10</v>
       </c>
       <c r="T2">
-        <v>2.778925923274713E-14</v>
+        <v>6.946671872341832E-15</v>
       </c>
       <c r="U2">
-        <v>-3.842280366037172E-09</v>
+        <v>-3.84227351203495E-09</v>
       </c>
       <c r="V2">
-        <v>3.842263890287338E-09</v>
+        <v>3.842239931336051E-09</v>
       </c>
       <c r="W2">
-        <v>-1.736767760867438E-14</v>
+        <v>-6.946383935175046E-15</v>
       </c>
       <c r="X2">
-        <v>3.842285661929419E-09</v>
+        <v>3.842277330741908E-09</v>
       </c>
       <c r="Y2">
-        <v>-3.842261284891933E-09</v>
+        <v>-3.842238194381786E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -4810,25 +4810,25 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.3666666746541442</v>
+        <v>0.3666666746541452</v>
       </c>
       <c r="AH2">
-        <v>0.9701088351760903</v>
+        <v>0.9701088351760897</v>
       </c>
       <c r="AI2">
-        <v>0.9701088350717375</v>
+        <v>0.9701088350717383</v>
       </c>
       <c r="AJ2">
-        <v>0.366666674685604</v>
+        <v>0.3666666746856049</v>
       </c>
       <c r="AK2">
-        <v>0.9701088351965892</v>
+        <v>0.9701088351965886</v>
       </c>
       <c r="AL2">
-        <v>0.970108835057184</v>
+        <v>0.9701088350571851</v>
       </c>
       <c r="AM2">
-        <v>1.660615800821346E-08</v>
+        <v>1.660608346296882E-08</v>
       </c>
       <c r="AN2">
         <v>-100.8933946492836</v>
@@ -4837,13 +4837,13 @@
         <v>100.8933946504709</v>
       </c>
       <c r="AP2">
-        <v>2.21839221277475E-08</v>
+        <v>2.218379925415673E-08</v>
       </c>
       <c r="AQ2">
         <v>-100.8933946499967</v>
       </c>
       <c r="AR2">
-        <v>100.8933946515823</v>
+        <v>100.8933946515824</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -4887,40 +4887,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>9.859242922097519E-10</v>
+        <v>9.859255948714626E-10</v>
       </c>
       <c r="O3">
-        <v>2.464741104950735E-10</v>
+        <v>2.464862603175529E-10</v>
       </c>
       <c r="P3">
-        <v>2.464728078333881E-10</v>
+        <v>2.464719393922484E-10</v>
       </c>
       <c r="Q3">
-        <v>-9.859251606226942E-10</v>
+        <v>-9.859264632844088E-10</v>
       </c>
       <c r="R3">
-        <v>-2.464894702013287E-10</v>
+        <v>-2.464878652559159E-10</v>
       </c>
       <c r="S3">
-        <v>-2.464682952738038E-10</v>
+        <v>-2.464736762674801E-10</v>
       </c>
       <c r="T3">
-        <v>4.137257760532235E-19</v>
+        <v>6.947942847982521E-15</v>
       </c>
       <c r="U3">
-        <v>1.280765678953885E-09</v>
+        <v>1.280768020403569E-09</v>
       </c>
       <c r="V3">
-        <v>-1.280758909918218E-09</v>
+        <v>-1.280754397365685E-09</v>
       </c>
       <c r="W3">
-        <v>-3.474146294859792E-15</v>
+        <v>-3.817313408899342E-19</v>
       </c>
       <c r="X3">
-        <v>-1.280760383125627E-09</v>
+        <v>-1.280764201760599E-09</v>
       </c>
       <c r="Y3">
-        <v>1.280759778367358E-09</v>
+        <v>1.280763422478753E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -4941,25 +4941,25 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.3666666746960905</v>
+        <v>0.3666666746960915</v>
       </c>
       <c r="AH3">
-        <v>0.9701088352034221</v>
+        <v>0.9701088352034215</v>
       </c>
       <c r="AI3">
-        <v>0.9701088350523328</v>
+        <v>0.9701088350523339</v>
       </c>
       <c r="AJ3">
-        <v>0.366666674685604</v>
+        <v>0.3666666746856049</v>
       </c>
       <c r="AK3">
-        <v>0.9701088351965892</v>
+        <v>0.9701088351965886</v>
       </c>
       <c r="AL3">
-        <v>0.970108835057184</v>
+        <v>0.9701088350571851</v>
       </c>
       <c r="AM3">
-        <v>2.404316541434837E-08</v>
+        <v>2.404302845829484E-08</v>
       </c>
       <c r="AN3">
         <v>-100.8933946502344</v>
@@ -4968,13 +4968,13 @@
         <v>100.8933946519528</v>
       </c>
       <c r="AP3">
-        <v>2.21839221277475E-08</v>
+        <v>2.218379925415673E-08</v>
       </c>
       <c r="AQ3">
         <v>-100.8933946499967</v>
       </c>
       <c r="AR3">
-        <v>100.8933946515823</v>
+        <v>100.8933946515824</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -5018,40 +5018,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>9.859208184451897E-10</v>
+        <v>9.859255948714626E-10</v>
       </c>
       <c r="O4">
-        <v>2.464813987178638E-10</v>
+        <v>2.464862603175529E-10</v>
       </c>
       <c r="P4">
-        <v>2.464719393922477E-10</v>
+        <v>2.464719393922484E-10</v>
       </c>
       <c r="Q4">
-        <v>-9.859216868581351E-10</v>
+        <v>-9.859264632844088E-10</v>
       </c>
       <c r="R4">
-        <v>-2.464894702013287E-10</v>
+        <v>-2.464878652559159E-10</v>
       </c>
       <c r="S4">
-        <v>-2.464674268326634E-10</v>
+        <v>-2.464736762674801E-10</v>
       </c>
       <c r="T4">
-        <v>4.13724251583203E-19</v>
+        <v>6.947942847982521E-15</v>
       </c>
       <c r="U4">
-        <v>1.280754916966533E-09</v>
+        <v>1.280768020403569E-09</v>
       </c>
       <c r="V4">
-        <v>-1.280754397365683E-09</v>
+        <v>-1.280754397365685E-09</v>
       </c>
       <c r="W4">
-        <v>3.473382830302995E-15</v>
+        <v>-3.817313408899342E-19</v>
       </c>
       <c r="X4">
-        <v>-1.280760383125627E-09</v>
+        <v>-1.280764201760599E-09</v>
       </c>
       <c r="Y4">
-        <v>1.280755265814823E-09</v>
+        <v>1.280763422478753E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -5072,25 +5072,25 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.3666666746960904</v>
+        <v>0.3666666746960915</v>
       </c>
       <c r="AH4">
-        <v>0.9701088352034221</v>
+        <v>0.9701088352034215</v>
       </c>
       <c r="AI4">
-        <v>0.9701088350523329</v>
+        <v>0.9701088350523339</v>
       </c>
       <c r="AJ4">
-        <v>0.366666674685604</v>
+        <v>0.3666666746856049</v>
       </c>
       <c r="AK4">
-        <v>0.9701088351965892</v>
+        <v>0.9701088351965886</v>
       </c>
       <c r="AL4">
-        <v>0.970108835057184</v>
+        <v>0.9701088350571851</v>
       </c>
       <c r="AM4">
-        <v>2.404316153431854E-08</v>
+        <v>2.404302845829484E-08</v>
       </c>
       <c r="AN4">
         <v>-100.8933946502344</v>
@@ -5099,13 +5099,13 @@
         <v>100.8933946519528</v>
       </c>
       <c r="AP4">
-        <v>2.21839221277475E-08</v>
+        <v>2.218379925415673E-08</v>
       </c>
       <c r="AQ4">
         <v>-100.8933946499967</v>
       </c>
       <c r="AR4">
-        <v>100.8933946515823</v>
+        <v>100.8933946515824</v>
       </c>
     </row>
   </sheetData>
@@ -5296,40 +5296,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.957781560702302E-09</v>
+        <v>-2.957762889217786E-09</v>
       </c>
       <c r="O2">
-        <v>-7.394846386949858E-10</v>
+        <v>-7.394716204313648E-10</v>
       </c>
       <c r="P2">
-        <v>-7.393878743358001E-10</v>
+        <v>-7.394394196428012E-10</v>
       </c>
       <c r="Q2">
-        <v>2.957780692514936E-09</v>
+        <v>2.957765494794981E-09</v>
       </c>
       <c r="R2">
-        <v>7.394692790451266E-10</v>
+        <v>7.394700155493977E-10</v>
       </c>
       <c r="S2">
-        <v>7.394014120568497E-10</v>
+        <v>7.394484448113158E-10</v>
       </c>
       <c r="T2">
-        <v>2.778925923274713E-14</v>
+        <v>6.946671872341832E-15</v>
       </c>
       <c r="U2">
-        <v>-3.842280366037172E-09</v>
+        <v>-3.84227351203495E-09</v>
       </c>
       <c r="V2">
-        <v>3.842263890287338E-09</v>
+        <v>3.842239931336051E-09</v>
       </c>
       <c r="W2">
-        <v>-1.736767760867438E-14</v>
+        <v>-6.946383935175046E-15</v>
       </c>
       <c r="X2">
-        <v>3.842285661929419E-09</v>
+        <v>3.842277330741908E-09</v>
       </c>
       <c r="Y2">
-        <v>-3.842261284891933E-09</v>
+        <v>-3.842238194381786E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -5350,25 +5350,25 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.3666666746541442</v>
+        <v>0.3666666746541452</v>
       </c>
       <c r="AH2">
-        <v>0.9701088351760903</v>
+        <v>0.9701088351760897</v>
       </c>
       <c r="AI2">
-        <v>0.9701088350717375</v>
+        <v>0.9701088350717383</v>
       </c>
       <c r="AJ2">
-        <v>0.366666674685604</v>
+        <v>0.3666666746856049</v>
       </c>
       <c r="AK2">
-        <v>0.9701088351965892</v>
+        <v>0.9701088351965886</v>
       </c>
       <c r="AL2">
-        <v>0.970108835057184</v>
+        <v>0.9701088350571851</v>
       </c>
       <c r="AM2">
-        <v>1.660615800821346E-08</v>
+        <v>1.660608346296882E-08</v>
       </c>
       <c r="AN2">
         <v>-100.8933946492836</v>
@@ -5377,13 +5377,13 @@
         <v>100.8933946504709</v>
       </c>
       <c r="AP2">
-        <v>2.21839221277475E-08</v>
+        <v>2.218379925415673E-08</v>
       </c>
       <c r="AQ2">
         <v>-100.8933946499967</v>
       </c>
       <c r="AR2">
-        <v>100.8933946515823</v>
+        <v>100.8933946515824</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -5427,40 +5427,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>9.859242922097519E-10</v>
+        <v>9.859255948714626E-10</v>
       </c>
       <c r="O3">
-        <v>2.464741104950735E-10</v>
+        <v>2.464862603175529E-10</v>
       </c>
       <c r="P3">
-        <v>2.464728078333881E-10</v>
+        <v>2.464719393922484E-10</v>
       </c>
       <c r="Q3">
-        <v>-9.859251606226942E-10</v>
+        <v>-9.859264632844088E-10</v>
       </c>
       <c r="R3">
-        <v>-2.464894702013287E-10</v>
+        <v>-2.464878652559159E-10</v>
       </c>
       <c r="S3">
-        <v>-2.464682952738038E-10</v>
+        <v>-2.464736762674801E-10</v>
       </c>
       <c r="T3">
-        <v>4.137257760532235E-19</v>
+        <v>6.947942847982521E-15</v>
       </c>
       <c r="U3">
-        <v>1.280765678953885E-09</v>
+        <v>1.280768020403569E-09</v>
       </c>
       <c r="V3">
-        <v>-1.280758909918218E-09</v>
+        <v>-1.280754397365685E-09</v>
       </c>
       <c r="W3">
-        <v>-3.474146294859792E-15</v>
+        <v>-3.817313408899342E-19</v>
       </c>
       <c r="X3">
-        <v>-1.280760383125627E-09</v>
+        <v>-1.280764201760599E-09</v>
       </c>
       <c r="Y3">
-        <v>1.280759778367358E-09</v>
+        <v>1.280763422478753E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -5481,25 +5481,25 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.3666666746960905</v>
+        <v>0.3666666746960915</v>
       </c>
       <c r="AH3">
-        <v>0.9701088352034221</v>
+        <v>0.9701088352034215</v>
       </c>
       <c r="AI3">
-        <v>0.9701088350523328</v>
+        <v>0.9701088350523339</v>
       </c>
       <c r="AJ3">
-        <v>0.366666674685604</v>
+        <v>0.3666666746856049</v>
       </c>
       <c r="AK3">
-        <v>0.9701088351965892</v>
+        <v>0.9701088351965886</v>
       </c>
       <c r="AL3">
-        <v>0.970108835057184</v>
+        <v>0.9701088350571851</v>
       </c>
       <c r="AM3">
-        <v>2.404316541434837E-08</v>
+        <v>2.404302845829484E-08</v>
       </c>
       <c r="AN3">
         <v>-100.8933946502344</v>
@@ -5508,13 +5508,13 @@
         <v>100.8933946519528</v>
       </c>
       <c r="AP3">
-        <v>2.21839221277475E-08</v>
+        <v>2.218379925415673E-08</v>
       </c>
       <c r="AQ3">
         <v>-100.8933946499967</v>
       </c>
       <c r="AR3">
-        <v>100.8933946515823</v>
+        <v>100.8933946515824</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -5558,40 +5558,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>9.859208184451897E-10</v>
+        <v>9.859255948714626E-10</v>
       </c>
       <c r="O4">
-        <v>2.464813987178638E-10</v>
+        <v>2.464862603175529E-10</v>
       </c>
       <c r="P4">
-        <v>2.464719393922477E-10</v>
+        <v>2.464719393922484E-10</v>
       </c>
       <c r="Q4">
-        <v>-9.859216868581351E-10</v>
+        <v>-9.859264632844088E-10</v>
       </c>
       <c r="R4">
-        <v>-2.464894702013287E-10</v>
+        <v>-2.464878652559159E-10</v>
       </c>
       <c r="S4">
-        <v>-2.464674268326634E-10</v>
+        <v>-2.464736762674801E-10</v>
       </c>
       <c r="T4">
-        <v>4.13724251583203E-19</v>
+        <v>6.947942847982521E-15</v>
       </c>
       <c r="U4">
-        <v>1.280754916966533E-09</v>
+        <v>1.280768020403569E-09</v>
       </c>
       <c r="V4">
-        <v>-1.280754397365683E-09</v>
+        <v>-1.280754397365685E-09</v>
       </c>
       <c r="W4">
-        <v>3.473382830302995E-15</v>
+        <v>-3.817313408899342E-19</v>
       </c>
       <c r="X4">
-        <v>-1.280760383125627E-09</v>
+        <v>-1.280764201760599E-09</v>
       </c>
       <c r="Y4">
-        <v>1.280755265814823E-09</v>
+        <v>1.280763422478753E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -5612,25 +5612,25 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.3666666746960904</v>
+        <v>0.3666666746960915</v>
       </c>
       <c r="AH4">
-        <v>0.9701088352034221</v>
+        <v>0.9701088352034215</v>
       </c>
       <c r="AI4">
-        <v>0.9701088350523329</v>
+        <v>0.9701088350523339</v>
       </c>
       <c r="AJ4">
-        <v>0.366666674685604</v>
+        <v>0.3666666746856049</v>
       </c>
       <c r="AK4">
-        <v>0.9701088351965892</v>
+        <v>0.9701088351965886</v>
       </c>
       <c r="AL4">
-        <v>0.970108835057184</v>
+        <v>0.9701088350571851</v>
       </c>
       <c r="AM4">
-        <v>2.404316153431854E-08</v>
+        <v>2.404302845829484E-08</v>
       </c>
       <c r="AN4">
         <v>-100.8933946502344</v>
@@ -5639,13 +5639,13 @@
         <v>100.8933946519528</v>
       </c>
       <c r="AP4">
-        <v>2.21839221277475E-08</v>
+        <v>2.218379925415673E-08</v>
       </c>
       <c r="AQ4">
         <v>-100.8933946499967</v>
       </c>
       <c r="AR4">
-        <v>100.8933946515823</v>
+        <v>100.8933946515824</v>
       </c>
     </row>
   </sheetData>
@@ -5836,40 +5836,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-3.138983601855953E-09</v>
+        <v>-3.138972639046227E-09</v>
       </c>
       <c r="O2">
-        <v>-1.398955483859004E-09</v>
+        <v>-1.398947287012708E-09</v>
       </c>
       <c r="P2">
-        <v>-1.7054019225198E-10</v>
+        <v>-1.70563170583768E-10</v>
       </c>
       <c r="Q2">
-        <v>3.138990475336461E-09</v>
+        <v>3.138978514537919E-09</v>
       </c>
       <c r="R2">
-        <v>1.398953726607291E-09</v>
+        <v>1.3989444928303E-09</v>
       </c>
       <c r="S2">
-        <v>1.705377971870336E-10</v>
+        <v>1.70567960804099E-10</v>
       </c>
       <c r="T2">
-        <v>1.418410542707577E-09</v>
+        <v>1.418386016977288E-09</v>
       </c>
       <c r="U2">
-        <v>-2.221742064668878E-09</v>
+        <v>-2.221731859355273E-09</v>
       </c>
       <c r="V2">
-        <v>2.930933325822876E-09</v>
+        <v>2.930905520848149E-09</v>
       </c>
       <c r="W2">
-        <v>-1.418405890312036E-09</v>
+        <v>-1.418382666465255E-09</v>
       </c>
       <c r="X2">
-        <v>2.221743843782969E-09</v>
+        <v>2.221737535006694E-09</v>
       </c>
       <c r="Y2">
-        <v>-2.930934046139837E-09</v>
+        <v>-2.930904080111615E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -5890,25 +5890,25 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.6194744497695825</v>
+        <v>0.6194744497695828</v>
       </c>
       <c r="AH2">
-        <v>0.9443347709443496</v>
+        <v>0.9443347709443493</v>
       </c>
       <c r="AI2">
-        <v>1.05598589769414</v>
+        <v>1.055985897694141</v>
       </c>
       <c r="AJ2">
-        <v>0.6194744497792126</v>
+        <v>0.6194744497792131</v>
       </c>
       <c r="AK2">
-        <v>0.944334770960538</v>
+        <v>0.9443347709605375</v>
       </c>
       <c r="AL2">
-        <v>1.055985897682488</v>
+        <v>1.055985897682489</v>
       </c>
       <c r="AM2">
-        <v>-10.9077501785047</v>
+        <v>-10.90775017850473</v>
       </c>
       <c r="AN2">
         <v>-108.7881138042144</v>
@@ -5917,7 +5917,7 @@
         <v>106.7392371168768</v>
       </c>
       <c r="AP2">
-        <v>-10.90775017560493</v>
+        <v>-10.90775017560498</v>
       </c>
       <c r="AQ2">
         <v>-108.7881138043733</v>
@@ -5967,40 +5967,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.046323400171952E-09</v>
+        <v>1.04632727956543E-09</v>
       </c>
       <c r="O3">
-        <v>4.663029666118201E-10</v>
+        <v>4.663054006487915E-10</v>
       </c>
       <c r="P3">
-        <v>5.684336912528559E-11</v>
+        <v>5.685727161264963E-11</v>
       </c>
       <c r="Q3">
-        <v>-1.046321179057355E-09</v>
+        <v>-1.046322514731523E-09</v>
       </c>
       <c r="R3">
-        <v>-4.663018424856683E-10</v>
+        <v>-4.663181053900982E-10</v>
       </c>
       <c r="S3">
-        <v>-5.683762453898937E-11</v>
+        <v>-5.685248141911494E-11</v>
       </c>
       <c r="T3">
-        <v>-4.727956803469071E-10</v>
+        <v>-4.727949337387022E-10</v>
       </c>
       <c r="U3">
-        <v>7.405859708133753E-10</v>
+        <v>7.405792364674373E-10</v>
       </c>
       <c r="V3">
-        <v>-9.769665981486579E-10</v>
+        <v>-9.76978087314552E-10</v>
       </c>
       <c r="W3">
-        <v>4.728072059807578E-10</v>
+        <v>4.727925213197979E-10</v>
       </c>
       <c r="X3">
-        <v>-7.405757218999171E-10</v>
+        <v>-7.405749143566431E-10</v>
       </c>
       <c r="Y3">
-        <v>9.769735493961402E-10</v>
+        <v>9.769795280206836E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -6021,25 +6021,25 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.6194744497824225</v>
+        <v>0.6194744497824231</v>
       </c>
       <c r="AH3">
-        <v>0.9443347709659341</v>
+        <v>0.9443347709659337</v>
       </c>
       <c r="AI3">
-        <v>1.055985897678604</v>
+        <v>1.055985897678605</v>
       </c>
       <c r="AJ3">
-        <v>0.6194744497792126</v>
+        <v>0.6194744497792131</v>
       </c>
       <c r="AK3">
-        <v>0.944334770960538</v>
+        <v>0.9443347709605375</v>
       </c>
       <c r="AL3">
-        <v>1.055985897682488</v>
+        <v>1.055985897682489</v>
       </c>
       <c r="AM3">
-        <v>-10.90775017463835</v>
+        <v>-10.90775017463841</v>
       </c>
       <c r="AN3">
         <v>-108.7881138044263</v>
@@ -6048,7 +6048,7 @@
         <v>106.7392371177116</v>
       </c>
       <c r="AP3">
-        <v>-10.90775017560493</v>
+        <v>-10.90775017560498</v>
       </c>
       <c r="AQ3">
         <v>-108.7881138043733</v>
@@ -6098,40 +6098,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.046330273531876E-09</v>
+        <v>1.04632727956543E-09</v>
       </c>
       <c r="O4">
-        <v>4.663058480164823E-10</v>
+        <v>4.663054006487915E-10</v>
       </c>
       <c r="P4">
-        <v>5.686206180283466E-11</v>
+        <v>5.685727161264963E-11</v>
       </c>
       <c r="Q4">
-        <v>-1.046329162967879E-09</v>
+        <v>-1.046322514731523E-09</v>
       </c>
       <c r="R4">
-        <v>-4.663047238903305E-10</v>
+        <v>-4.663181053900982E-10</v>
       </c>
       <c r="S4">
-        <v>-5.685678529973027E-11</v>
+        <v>-5.685248141911494E-11</v>
       </c>
       <c r="T4">
-        <v>-4.727910280881822E-10</v>
+        <v>-4.727949337387022E-10</v>
       </c>
       <c r="U4">
-        <v>7.405944406431464E-10</v>
+        <v>7.405792364674373E-10</v>
       </c>
       <c r="V4">
-        <v>-9.769766466122202E-10</v>
+        <v>-9.76978087314552E-10</v>
       </c>
       <c r="W4">
-        <v>4.727967909127084E-10</v>
+        <v>4.727925213197979E-10</v>
       </c>
       <c r="X4">
-        <v>-7.405841917296879E-10</v>
+        <v>-7.405749143566431E-10</v>
       </c>
       <c r="Y4">
-        <v>9.769677865868159E-10</v>
+        <v>9.769795280206836E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -6152,25 +6152,25 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.6194744497824225</v>
+        <v>0.6194744497824231</v>
       </c>
       <c r="AH4">
-        <v>0.9443347709659341</v>
+        <v>0.9443347709659337</v>
       </c>
       <c r="AI4">
-        <v>1.055985897678604</v>
+        <v>1.055985897678605</v>
       </c>
       <c r="AJ4">
-        <v>0.6194744497792126</v>
+        <v>0.6194744497792131</v>
       </c>
       <c r="AK4">
-        <v>0.944334770960538</v>
+        <v>0.9443347709605375</v>
       </c>
       <c r="AL4">
-        <v>1.055985897682488</v>
+        <v>1.055985897682489</v>
       </c>
       <c r="AM4">
-        <v>-10.90775017463835</v>
+        <v>-10.90775017463841</v>
       </c>
       <c r="AN4">
         <v>-108.7881138044263</v>
@@ -6179,7 +6179,7 @@
         <v>106.7392371177116</v>
       </c>
       <c r="AP4">
-        <v>-10.90775017560493</v>
+        <v>-10.90775017560498</v>
       </c>
       <c r="AQ4">
         <v>-108.7881138043733</v>
@@ -6601,40 +6601,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-3.138983601855953E-09</v>
+        <v>-3.138972639046227E-09</v>
       </c>
       <c r="O2">
-        <v>-1.398955483859004E-09</v>
+        <v>-1.398947287012708E-09</v>
       </c>
       <c r="P2">
-        <v>-1.7054019225198E-10</v>
+        <v>-1.70563170583768E-10</v>
       </c>
       <c r="Q2">
-        <v>3.138990475336461E-09</v>
+        <v>3.138978514537919E-09</v>
       </c>
       <c r="R2">
-        <v>1.398953726607291E-09</v>
+        <v>1.3989444928303E-09</v>
       </c>
       <c r="S2">
-        <v>1.705377971870336E-10</v>
+        <v>1.70567960804099E-10</v>
       </c>
       <c r="T2">
-        <v>1.418410542707577E-09</v>
+        <v>1.418386016977288E-09</v>
       </c>
       <c r="U2">
-        <v>-2.221742064668878E-09</v>
+        <v>-2.221731859355273E-09</v>
       </c>
       <c r="V2">
-        <v>2.930933325822876E-09</v>
+        <v>2.930905520848149E-09</v>
       </c>
       <c r="W2">
-        <v>-1.418405890312036E-09</v>
+        <v>-1.418382666465255E-09</v>
       </c>
       <c r="X2">
-        <v>2.221743843782969E-09</v>
+        <v>2.221737535006694E-09</v>
       </c>
       <c r="Y2">
-        <v>-2.930934046139837E-09</v>
+        <v>-2.930904080111615E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -6655,25 +6655,25 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.6194744497695825</v>
+        <v>0.6194744497695828</v>
       </c>
       <c r="AH2">
-        <v>0.9443347709443496</v>
+        <v>0.9443347709443493</v>
       </c>
       <c r="AI2">
-        <v>1.05598589769414</v>
+        <v>1.055985897694141</v>
       </c>
       <c r="AJ2">
-        <v>0.6194744497792126</v>
+        <v>0.6194744497792131</v>
       </c>
       <c r="AK2">
-        <v>0.944334770960538</v>
+        <v>0.9443347709605375</v>
       </c>
       <c r="AL2">
-        <v>1.055985897682488</v>
+        <v>1.055985897682489</v>
       </c>
       <c r="AM2">
-        <v>-10.9077501785047</v>
+        <v>-10.90775017850473</v>
       </c>
       <c r="AN2">
         <v>-108.7881138042144</v>
@@ -6682,7 +6682,7 @@
         <v>106.7392371168768</v>
       </c>
       <c r="AP2">
-        <v>-10.90775017560493</v>
+        <v>-10.90775017560498</v>
       </c>
       <c r="AQ2">
         <v>-108.7881138043733</v>
@@ -6732,40 +6732,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.046323400171952E-09</v>
+        <v>1.04632727956543E-09</v>
       </c>
       <c r="O3">
-        <v>4.663029666118201E-10</v>
+        <v>4.663054006487915E-10</v>
       </c>
       <c r="P3">
-        <v>5.684336912528559E-11</v>
+        <v>5.685727161264963E-11</v>
       </c>
       <c r="Q3">
-        <v>-1.046321179057355E-09</v>
+        <v>-1.046322514731523E-09</v>
       </c>
       <c r="R3">
-        <v>-4.663018424856683E-10</v>
+        <v>-4.663181053900982E-10</v>
       </c>
       <c r="S3">
-        <v>-5.683762453898937E-11</v>
+        <v>-5.685248141911494E-11</v>
       </c>
       <c r="T3">
-        <v>-4.727956803469071E-10</v>
+        <v>-4.727949337387022E-10</v>
       </c>
       <c r="U3">
-        <v>7.405859708133753E-10</v>
+        <v>7.405792364674373E-10</v>
       </c>
       <c r="V3">
-        <v>-9.769665981486579E-10</v>
+        <v>-9.76978087314552E-10</v>
       </c>
       <c r="W3">
-        <v>4.728072059807578E-10</v>
+        <v>4.727925213197979E-10</v>
       </c>
       <c r="X3">
-        <v>-7.405757218999171E-10</v>
+        <v>-7.405749143566431E-10</v>
       </c>
       <c r="Y3">
-        <v>9.769735493961402E-10</v>
+        <v>9.769795280206836E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -6786,25 +6786,25 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.6194744497824225</v>
+        <v>0.6194744497824231</v>
       </c>
       <c r="AH3">
-        <v>0.9443347709659341</v>
+        <v>0.9443347709659337</v>
       </c>
       <c r="AI3">
-        <v>1.055985897678604</v>
+        <v>1.055985897678605</v>
       </c>
       <c r="AJ3">
-        <v>0.6194744497792126</v>
+        <v>0.6194744497792131</v>
       </c>
       <c r="AK3">
-        <v>0.944334770960538</v>
+        <v>0.9443347709605375</v>
       </c>
       <c r="AL3">
-        <v>1.055985897682488</v>
+        <v>1.055985897682489</v>
       </c>
       <c r="AM3">
-        <v>-10.90775017463835</v>
+        <v>-10.90775017463841</v>
       </c>
       <c r="AN3">
         <v>-108.7881138044263</v>
@@ -6813,7 +6813,7 @@
         <v>106.7392371177116</v>
       </c>
       <c r="AP3">
-        <v>-10.90775017560493</v>
+        <v>-10.90775017560498</v>
       </c>
       <c r="AQ3">
         <v>-108.7881138043733</v>
@@ -6863,40 +6863,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.046330273531876E-09</v>
+        <v>1.04632727956543E-09</v>
       </c>
       <c r="O4">
-        <v>4.663058480164823E-10</v>
+        <v>4.663054006487915E-10</v>
       </c>
       <c r="P4">
-        <v>5.686206180283466E-11</v>
+        <v>5.685727161264963E-11</v>
       </c>
       <c r="Q4">
-        <v>-1.046329162967879E-09</v>
+        <v>-1.046322514731523E-09</v>
       </c>
       <c r="R4">
-        <v>-4.663047238903305E-10</v>
+        <v>-4.663181053900982E-10</v>
       </c>
       <c r="S4">
-        <v>-5.685678529973027E-11</v>
+        <v>-5.685248141911494E-11</v>
       </c>
       <c r="T4">
-        <v>-4.727910280881822E-10</v>
+        <v>-4.727949337387022E-10</v>
       </c>
       <c r="U4">
-        <v>7.405944406431464E-10</v>
+        <v>7.405792364674373E-10</v>
       </c>
       <c r="V4">
-        <v>-9.769766466122202E-10</v>
+        <v>-9.76978087314552E-10</v>
       </c>
       <c r="W4">
-        <v>4.727967909127084E-10</v>
+        <v>4.727925213197979E-10</v>
       </c>
       <c r="X4">
-        <v>-7.405841917296879E-10</v>
+        <v>-7.405749143566431E-10</v>
       </c>
       <c r="Y4">
-        <v>9.769677865868159E-10</v>
+        <v>9.769795280206836E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -6917,25 +6917,25 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.6194744497824225</v>
+        <v>0.6194744497824231</v>
       </c>
       <c r="AH4">
-        <v>0.9443347709659341</v>
+        <v>0.9443347709659337</v>
       </c>
       <c r="AI4">
-        <v>1.055985897678604</v>
+        <v>1.055985897678605</v>
       </c>
       <c r="AJ4">
-        <v>0.6194744497792126</v>
+        <v>0.6194744497792131</v>
       </c>
       <c r="AK4">
-        <v>0.944334770960538</v>
+        <v>0.9443347709605375</v>
       </c>
       <c r="AL4">
-        <v>1.055985897682488</v>
+        <v>1.055985897682489</v>
       </c>
       <c r="AM4">
-        <v>-10.90775017463835</v>
+        <v>-10.90775017463841</v>
       </c>
       <c r="AN4">
         <v>-108.7881138044263</v>
@@ -6944,7 +6944,7 @@
         <v>106.7392371177116</v>
       </c>
       <c r="AP4">
-        <v>-10.90775017560493</v>
+        <v>-10.90775017560498</v>
       </c>
       <c r="AQ4">
         <v>-108.7881138043733</v>
@@ -7141,40 +7141,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.444431225317784E-09</v>
+        <v>-2.444430830571816E-09</v>
       </c>
       <c r="O2">
-        <v>-6.11088796280935E-10</v>
+        <v>-6.111001938075961E-10</v>
       </c>
       <c r="P2">
-        <v>-6.111103296660396E-10</v>
+        <v>-6.111131703181698E-10</v>
       </c>
       <c r="Q2">
-        <v>2.444431620466432E-09</v>
+        <v>2.444428067752748E-09</v>
       </c>
       <c r="R2">
-        <v>6.110900580498777E-10</v>
+        <v>6.1109609158787E-10</v>
       </c>
       <c r="S2">
-        <v>6.111115914349807E-10</v>
+        <v>6.111098575903726E-10</v>
       </c>
       <c r="T2">
-        <v>-2.368829968033706E-15</v>
+        <v>-5.921543649834018E-15</v>
       </c>
       <c r="U2">
-        <v>-3.175432111141399E-09</v>
+        <v>-3.175413964218155E-09</v>
       </c>
       <c r="V2">
-        <v>3.175400314184181E-09</v>
+        <v>3.175404021758615E-09</v>
       </c>
       <c r="W2">
-        <v>7.900840763137196E-16</v>
+        <v>7.500765468933601E-15</v>
       </c>
       <c r="X2">
-        <v>3.175427614134528E-09</v>
+        <v>3.175414753769576E-09</v>
       </c>
       <c r="Y2">
-        <v>-3.175395817058329E-09</v>
+        <v>-3.175408913511451E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -7195,25 +7195,25 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.3333333333308632</v>
+        <v>0.3333333333308629</v>
       </c>
       <c r="AH2">
-        <v>0.8819171037085276</v>
+        <v>0.8819171037085269</v>
       </c>
       <c r="AI2">
-        <v>0.881917103661101</v>
+        <v>0.8819171036611017</v>
       </c>
       <c r="AJ2">
-        <v>0.3333333333857749</v>
+        <v>0.3333333333857745</v>
       </c>
       <c r="AK2">
-        <v>0.8819171037296485</v>
+        <v>0.8819171037296483</v>
       </c>
       <c r="AL2">
-        <v>0.8819171036503575</v>
+        <v>0.8819171036503578</v>
       </c>
       <c r="AM2">
-        <v>8.301785759576047E-09</v>
+        <v>8.301858030956998E-09</v>
       </c>
       <c r="AN2">
         <v>-100.8933946487909</v>
@@ -7222,7 +7222,7 @@
         <v>100.8933946493849</v>
       </c>
       <c r="AP2">
-        <v>1.387952772508363E-08</v>
+        <v>1.387950744820815E-08</v>
       </c>
       <c r="AQ2">
         <v>-100.8933946503433</v>
@@ -7272,40 +7272,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.148125139300421E-10</v>
+        <v>8.148192246114358E-10</v>
       </c>
       <c r="O3">
-        <v>2.037030510521331E-10</v>
+        <v>2.036967001985544E-10</v>
       </c>
       <c r="P3">
-        <v>2.037081751556076E-10</v>
+        <v>2.037051796427277E-10</v>
       </c>
       <c r="Q3">
-        <v>-8.148089611716193E-10</v>
+        <v>-8.148188298207275E-10</v>
       </c>
       <c r="R3">
-        <v>-2.03698159228621E-10</v>
+        <v>-2.036987513475678E-10</v>
       </c>
       <c r="S3">
-        <v>-2.037081751444227E-10</v>
+        <v>-2.03703600647685E-10</v>
       </c>
       <c r="T3">
-        <v>7.897157533262182E-16</v>
+        <v>3.552937505080955E-15</v>
       </c>
       <c r="U3">
-        <v>1.058483154951664E-09</v>
+        <v>1.058483313609458E-09</v>
       </c>
       <c r="V3">
-        <v>-1.058454516027346E-09</v>
+        <v>-1.058472109546829E-09</v>
       </c>
       <c r="W3">
-        <v>-2.368673168379515E-15</v>
+        <v>-3.552911063601574E-15</v>
       </c>
       <c r="X3">
-        <v>-1.058479842116586E-09</v>
+        <v>-1.058482918856884E-09</v>
       </c>
       <c r="Y3">
-        <v>1.058454516033956E-09</v>
+        <v>1.058463904912644E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -7326,34 +7326,34 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.333333333404079</v>
+        <v>0.3333333334040789</v>
       </c>
       <c r="AH3">
-        <v>0.8819171037366886</v>
+        <v>0.8819171037366884</v>
       </c>
       <c r="AI3">
-        <v>0.8819171036467766</v>
+        <v>0.8819171036467764</v>
       </c>
       <c r="AJ3">
-        <v>0.3333333333857749</v>
+        <v>0.3333333333857745</v>
       </c>
       <c r="AK3">
-        <v>0.8819171037296485</v>
+        <v>0.8819171037296483</v>
       </c>
       <c r="AL3">
-        <v>0.8819171036503575</v>
+        <v>0.8819171036503578</v>
       </c>
       <c r="AM3">
-        <v>1.573883692711622E-08</v>
+        <v>1.573877692719797E-08</v>
       </c>
       <c r="AN3">
-        <v>-100.8933946508607</v>
+        <v>-100.8933946508608</v>
       </c>
       <c r="AO3">
         <v>100.8933946519859</v>
       </c>
       <c r="AP3">
-        <v>1.387952772508363E-08</v>
+        <v>1.387950744820815E-08</v>
       </c>
       <c r="AQ3">
         <v>-100.8933946503433</v>
@@ -7403,40 +7403,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.148125139300421E-10</v>
+        <v>8.148192246114358E-10</v>
       </c>
       <c r="O4">
-        <v>2.036950012720912E-10</v>
+        <v>2.036967001985544E-10</v>
       </c>
       <c r="P4">
-        <v>2.037072308029256E-10</v>
+        <v>2.037051796427277E-10</v>
       </c>
       <c r="Q4">
-        <v>-8.148121191393341E-10</v>
+        <v>-8.148188298207275E-10</v>
       </c>
       <c r="R4">
-        <v>-2.036942117689772E-10</v>
+        <v>-2.036987513475678E-10</v>
       </c>
       <c r="S4">
-        <v>-2.037051796315415E-10</v>
+        <v>-2.03703600647685E-10</v>
       </c>
       <c r="T4">
-        <v>7.897157533085495E-16</v>
+        <v>3.552937505080955E-15</v>
       </c>
       <c r="U4">
-        <v>1.058463432841604E-09</v>
+        <v>1.058483313609458E-09</v>
       </c>
       <c r="V4">
-        <v>-1.058471714800864E-09</v>
+        <v>-1.058472109546829E-09</v>
       </c>
       <c r="W4">
-        <v>-2.368673169144512E-15</v>
+        <v>-3.552911063601574E-15</v>
       </c>
       <c r="X4">
-        <v>-1.058459330514597E-09</v>
+        <v>-1.058482918856884E-09</v>
       </c>
       <c r="Y4">
-        <v>1.058472109553439E-09</v>
+        <v>1.058463904912644E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -7457,34 +7457,34 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.333333333404079</v>
+        <v>0.3333333334040789</v>
       </c>
       <c r="AH4">
-        <v>0.8819171037366886</v>
+        <v>0.8819171037366884</v>
       </c>
       <c r="AI4">
         <v>0.8819171036467764</v>
       </c>
       <c r="AJ4">
-        <v>0.3333333333857749</v>
+        <v>0.3333333333857745</v>
       </c>
       <c r="AK4">
-        <v>0.8819171037296485</v>
+        <v>0.8819171037296483</v>
       </c>
       <c r="AL4">
-        <v>0.8819171036503575</v>
+        <v>0.8819171036503578</v>
       </c>
       <c r="AM4">
-        <v>1.573883568467597E-08</v>
+        <v>1.573877692719797E-08</v>
       </c>
       <c r="AN4">
-        <v>-100.8933946508607</v>
+        <v>-100.8933946508608</v>
       </c>
       <c r="AO4">
         <v>100.8933946519859</v>
       </c>
       <c r="AP4">
-        <v>1.387952772508363E-08</v>
+        <v>1.387950744820815E-08</v>
       </c>
       <c r="AQ4">
         <v>-100.8933946503433</v>
@@ -7681,40 +7681,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.444431225317784E-09</v>
+        <v>-2.444430830571816E-09</v>
       </c>
       <c r="O2">
-        <v>-6.11088796280935E-10</v>
+        <v>-6.111001938075961E-10</v>
       </c>
       <c r="P2">
-        <v>-6.111103296660396E-10</v>
+        <v>-6.111131703181698E-10</v>
       </c>
       <c r="Q2">
-        <v>2.444431620466432E-09</v>
+        <v>2.444428067752748E-09</v>
       </c>
       <c r="R2">
-        <v>6.110900580498777E-10</v>
+        <v>6.1109609158787E-10</v>
       </c>
       <c r="S2">
-        <v>6.111115914349807E-10</v>
+        <v>6.111098575903726E-10</v>
       </c>
       <c r="T2">
-        <v>-2.368829968033706E-15</v>
+        <v>-5.921543649834018E-15</v>
       </c>
       <c r="U2">
-        <v>-3.175432111141399E-09</v>
+        <v>-3.175413964218155E-09</v>
       </c>
       <c r="V2">
-        <v>3.175400314184181E-09</v>
+        <v>3.175404021758615E-09</v>
       </c>
       <c r="W2">
-        <v>7.900840763137196E-16</v>
+        <v>7.500765468933601E-15</v>
       </c>
       <c r="X2">
-        <v>3.175427614134528E-09</v>
+        <v>3.175414753769576E-09</v>
       </c>
       <c r="Y2">
-        <v>-3.175395817058329E-09</v>
+        <v>-3.175408913511451E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -7735,25 +7735,25 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.3333333333308632</v>
+        <v>0.3333333333308629</v>
       </c>
       <c r="AH2">
-        <v>0.8819171037085276</v>
+        <v>0.8819171037085269</v>
       </c>
       <c r="AI2">
-        <v>0.881917103661101</v>
+        <v>0.8819171036611017</v>
       </c>
       <c r="AJ2">
-        <v>0.3333333333857749</v>
+        <v>0.3333333333857745</v>
       </c>
       <c r="AK2">
-        <v>0.8819171037296485</v>
+        <v>0.8819171037296483</v>
       </c>
       <c r="AL2">
-        <v>0.8819171036503575</v>
+        <v>0.8819171036503578</v>
       </c>
       <c r="AM2">
-        <v>8.301785759576047E-09</v>
+        <v>8.301858030956998E-09</v>
       </c>
       <c r="AN2">
         <v>-100.8933946487909</v>
@@ -7762,7 +7762,7 @@
         <v>100.8933946493849</v>
       </c>
       <c r="AP2">
-        <v>1.387952772508363E-08</v>
+        <v>1.387950744820815E-08</v>
       </c>
       <c r="AQ2">
         <v>-100.8933946503433</v>
@@ -7812,40 +7812,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.148125139300421E-10</v>
+        <v>8.148192246114358E-10</v>
       </c>
       <c r="O3">
-        <v>2.037030510521331E-10</v>
+        <v>2.036967001985544E-10</v>
       </c>
       <c r="P3">
-        <v>2.037081751556076E-10</v>
+        <v>2.037051796427277E-10</v>
       </c>
       <c r="Q3">
-        <v>-8.148089611716193E-10</v>
+        <v>-8.148188298207275E-10</v>
       </c>
       <c r="R3">
-        <v>-2.03698159228621E-10</v>
+        <v>-2.036987513475678E-10</v>
       </c>
       <c r="S3">
-        <v>-2.037081751444227E-10</v>
+        <v>-2.03703600647685E-10</v>
       </c>
       <c r="T3">
-        <v>7.897157533262182E-16</v>
+        <v>3.552937505080955E-15</v>
       </c>
       <c r="U3">
-        <v>1.058483154951664E-09</v>
+        <v>1.058483313609458E-09</v>
       </c>
       <c r="V3">
-        <v>-1.058454516027346E-09</v>
+        <v>-1.058472109546829E-09</v>
       </c>
       <c r="W3">
-        <v>-2.368673168379515E-15</v>
+        <v>-3.552911063601574E-15</v>
       </c>
       <c r="X3">
-        <v>-1.058479842116586E-09</v>
+        <v>-1.058482918856884E-09</v>
       </c>
       <c r="Y3">
-        <v>1.058454516033956E-09</v>
+        <v>1.058463904912644E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -7866,34 +7866,34 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.333333333404079</v>
+        <v>0.3333333334040789</v>
       </c>
       <c r="AH3">
-        <v>0.8819171037366886</v>
+        <v>0.8819171037366884</v>
       </c>
       <c r="AI3">
-        <v>0.8819171036467766</v>
+        <v>0.8819171036467764</v>
       </c>
       <c r="AJ3">
-        <v>0.3333333333857749</v>
+        <v>0.3333333333857745</v>
       </c>
       <c r="AK3">
-        <v>0.8819171037296485</v>
+        <v>0.8819171037296483</v>
       </c>
       <c r="AL3">
-        <v>0.8819171036503575</v>
+        <v>0.8819171036503578</v>
       </c>
       <c r="AM3">
-        <v>1.573883692711622E-08</v>
+        <v>1.573877692719797E-08</v>
       </c>
       <c r="AN3">
-        <v>-100.8933946508607</v>
+        <v>-100.8933946508608</v>
       </c>
       <c r="AO3">
         <v>100.8933946519859</v>
       </c>
       <c r="AP3">
-        <v>1.387952772508363E-08</v>
+        <v>1.387950744820815E-08</v>
       </c>
       <c r="AQ3">
         <v>-100.8933946503433</v>
@@ -7943,40 +7943,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.148125139300421E-10</v>
+        <v>8.148192246114358E-10</v>
       </c>
       <c r="O4">
-        <v>2.036950012720912E-10</v>
+        <v>2.036967001985544E-10</v>
       </c>
       <c r="P4">
-        <v>2.037072308029256E-10</v>
+        <v>2.037051796427277E-10</v>
       </c>
       <c r="Q4">
-        <v>-8.148121191393341E-10</v>
+        <v>-8.148188298207275E-10</v>
       </c>
       <c r="R4">
-        <v>-2.036942117689772E-10</v>
+        <v>-2.036987513475678E-10</v>
       </c>
       <c r="S4">
-        <v>-2.037051796315415E-10</v>
+        <v>-2.03703600647685E-10</v>
       </c>
       <c r="T4">
-        <v>7.897157533085495E-16</v>
+        <v>3.552937505080955E-15</v>
       </c>
       <c r="U4">
-        <v>1.058463432841604E-09</v>
+        <v>1.058483313609458E-09</v>
       </c>
       <c r="V4">
-        <v>-1.058471714800864E-09</v>
+        <v>-1.058472109546829E-09</v>
       </c>
       <c r="W4">
-        <v>-2.368673169144512E-15</v>
+        <v>-3.552911063601574E-15</v>
       </c>
       <c r="X4">
-        <v>-1.058459330514597E-09</v>
+        <v>-1.058482918856884E-09</v>
       </c>
       <c r="Y4">
-        <v>1.058472109553439E-09</v>
+        <v>1.058463904912644E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -7997,34 +7997,34 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.333333333404079</v>
+        <v>0.3333333334040789</v>
       </c>
       <c r="AH4">
-        <v>0.8819171037366886</v>
+        <v>0.8819171037366884</v>
       </c>
       <c r="AI4">
         <v>0.8819171036467764</v>
       </c>
       <c r="AJ4">
-        <v>0.3333333333857749</v>
+        <v>0.3333333333857745</v>
       </c>
       <c r="AK4">
-        <v>0.8819171037296485</v>
+        <v>0.8819171037296483</v>
       </c>
       <c r="AL4">
-        <v>0.8819171036503575</v>
+        <v>0.8819171036503578</v>
       </c>
       <c r="AM4">
-        <v>1.573883568467597E-08</v>
+        <v>1.573877692719797E-08</v>
       </c>
       <c r="AN4">
-        <v>-100.8933946508607</v>
+        <v>-100.8933946508608</v>
       </c>
       <c r="AO4">
         <v>100.8933946519859</v>
       </c>
       <c r="AP4">
-        <v>1.387952772508363E-08</v>
+        <v>1.387950744820815E-08</v>
       </c>
       <c r="AQ4">
         <v>-100.8933946503433</v>
@@ -8221,40 +8221,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.624739819041317E-09</v>
+        <v>-2.624740242438222E-09</v>
       </c>
       <c r="O2">
-        <v>-1.140189397355519E-09</v>
+        <v>-1.140188116609644E-09</v>
       </c>
       <c r="P2">
-        <v>-1.721682363949232E-10</v>
+        <v>-1.721668711567815E-10</v>
       </c>
       <c r="Q2">
-        <v>2.624738827563759E-09</v>
+        <v>2.624744597165584E-09</v>
       </c>
       <c r="R2">
-        <v>1.140191939492998E-09</v>
+        <v>1.140192293640149E-09</v>
       </c>
       <c r="S2">
-        <v>1.721648036084517E-10</v>
+        <v>1.721646997100813E-10</v>
       </c>
       <c r="T2">
-        <v>1.117779327206008E-09</v>
+        <v>1.117770257150939E-09</v>
       </c>
       <c r="U2">
-        <v>-1.947063117584023E-09</v>
+        <v>-1.947062467508032E-09</v>
       </c>
       <c r="V2">
-        <v>2.505935859623044E-09</v>
+        <v>2.505943320123472E-09</v>
       </c>
       <c r="W2">
-        <v>-1.117781098754809E-09</v>
+        <v>-1.117771414731701E-09</v>
       </c>
       <c r="X2">
-        <v>1.947067629334371E-09</v>
+        <v>1.947062171609823E-09</v>
       </c>
       <c r="Y2">
-        <v>-2.505932147265233E-09</v>
+        <v>-2.505943950762727E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -8275,25 +8275,25 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.5421614591499193</v>
+        <v>0.5421614591499188</v>
       </c>
       <c r="AH2">
-        <v>0.8576025463155463</v>
+        <v>0.8576025463155459</v>
       </c>
       <c r="AI2">
-        <v>0.9547184906659627</v>
+        <v>0.954718490665963</v>
       </c>
       <c r="AJ2">
-        <v>0.5421614591770476</v>
+        <v>0.5421614591770472</v>
       </c>
       <c r="AK2">
-        <v>0.8576025463355481</v>
+        <v>0.8576025463355478</v>
       </c>
       <c r="AL2">
-        <v>0.9547184906556984</v>
+        <v>0.9547184906556985</v>
       </c>
       <c r="AM2">
-        <v>-10.80277169403311</v>
+        <v>-10.80277169403308</v>
       </c>
       <c r="AN2">
         <v>-108.0887396155924</v>
@@ -8302,13 +8302,13 @@
         <v>106.1949204558219</v>
       </c>
       <c r="AP2">
-        <v>-10.80277169013766</v>
+        <v>-10.80277169013768</v>
       </c>
       <c r="AQ2">
         <v>-108.0887396163351</v>
       </c>
       <c r="AR2">
-        <v>106.1949204570493</v>
+        <v>106.1949204570494</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -8352,40 +8352,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.749113090549533E-10</v>
+        <v>8.74924345849572E-10</v>
       </c>
       <c r="O3">
-        <v>3.800701862802415E-10</v>
+        <v>3.800673094535485E-10</v>
       </c>
       <c r="P3">
-        <v>5.738604858195407E-11</v>
+        <v>5.738920193138256E-11</v>
       </c>
       <c r="Q3">
-        <v>-8.749125413934726E-10</v>
+        <v>-8.749250366655872E-10</v>
       </c>
       <c r="R3">
-        <v>-3.800733590300143E-10</v>
+        <v>-3.800638019512109E-10</v>
       </c>
       <c r="S3">
-        <v>-5.738839566523298E-11</v>
+        <v>-5.739154901466137E-11</v>
       </c>
       <c r="T3">
-        <v>-3.725988348153686E-10</v>
+        <v>-3.725921715269845E-10</v>
       </c>
       <c r="U3">
-        <v>6.490230088423601E-10</v>
+        <v>6.490207432794484E-10</v>
       </c>
       <c r="V3">
-        <v>-8.353003718685592E-10</v>
+        <v>-8.353112293612237E-10</v>
       </c>
       <c r="W3">
-        <v>3.725958018178885E-10</v>
+        <v>3.725919765439894E-10</v>
       </c>
       <c r="X3">
-        <v>-6.490294513805402E-10</v>
+        <v>-6.490165468912689E-10</v>
       </c>
       <c r="Y3">
-        <v>8.353043995340853E-10</v>
+        <v>8.353152570267501E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -8409,22 +8409,22 @@
         <v>0.5421614591860903</v>
       </c>
       <c r="AH3">
-        <v>0.8576025463422151</v>
+        <v>0.857602546342215</v>
       </c>
       <c r="AI3">
-        <v>0.9547184906522771</v>
+        <v>0.954718490652277</v>
       </c>
       <c r="AJ3">
-        <v>0.5421614591770476</v>
+        <v>0.5421614591770472</v>
       </c>
       <c r="AK3">
-        <v>0.8576025463355481</v>
+        <v>0.8576025463355478</v>
       </c>
       <c r="AL3">
-        <v>0.9547184906556984</v>
+        <v>0.9547184906556985</v>
       </c>
       <c r="AM3">
-        <v>-10.80277168883916</v>
+        <v>-10.80277168883918</v>
       </c>
       <c r="AN3">
         <v>-108.0887396165827</v>
@@ -8433,13 +8433,13 @@
         <v>106.1949204574585</v>
       </c>
       <c r="AP3">
-        <v>-10.80277169013766</v>
+        <v>-10.80277169013768</v>
       </c>
       <c r="AQ3">
         <v>-108.0887396163351</v>
       </c>
       <c r="AR3">
-        <v>106.1949204570493</v>
+        <v>106.1949204570494</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -8483,40 +8483,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.74922843833133E-10</v>
+        <v>8.74924345849572E-10</v>
       </c>
       <c r="O4">
-        <v>3.800634284037151E-10</v>
+        <v>3.800673094535485E-10</v>
       </c>
       <c r="P4">
-        <v>5.739326543957206E-11</v>
+        <v>5.738920193138256E-11</v>
       </c>
       <c r="Q4">
-        <v>-8.749235948183155E-10</v>
+        <v>-8.749250366655872E-10</v>
       </c>
       <c r="R4">
-        <v>-3.800605127590553E-10</v>
+        <v>-3.800638019512109E-10</v>
       </c>
       <c r="S4">
-        <v>-5.739669827211725E-11</v>
+        <v>-5.739154901466137E-11</v>
       </c>
       <c r="T4">
-        <v>-3.725931921900872E-10</v>
+        <v>-3.725921715269845E-10</v>
       </c>
       <c r="U4">
-        <v>6.490252161869598E-10</v>
+        <v>6.490207432794484E-10</v>
       </c>
       <c r="V4">
-        <v>-8.353171131869368E-10</v>
+        <v>-8.353112293612237E-10</v>
       </c>
       <c r="W4">
-        <v>3.725926818721497E-10</v>
+        <v>3.725919765439894E-10</v>
       </c>
       <c r="X4">
-        <v>-6.490293737561246E-10</v>
+        <v>-6.490165468912689E-10</v>
       </c>
       <c r="Y4">
-        <v>8.353208255175203E-10</v>
+        <v>8.353152570267501E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -8537,7 +8537,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.5421614591860905</v>
+        <v>0.5421614591860903</v>
       </c>
       <c r="AH4">
         <v>0.857602546342215</v>
@@ -8546,16 +8546,16 @@
         <v>0.954718490652277</v>
       </c>
       <c r="AJ4">
-        <v>0.5421614591770476</v>
+        <v>0.5421614591770472</v>
       </c>
       <c r="AK4">
-        <v>0.8576025463355481</v>
+        <v>0.8576025463355478</v>
       </c>
       <c r="AL4">
-        <v>0.9547184906556984</v>
+        <v>0.9547184906556985</v>
       </c>
       <c r="AM4">
-        <v>-10.80277168883915</v>
+        <v>-10.80277168883918</v>
       </c>
       <c r="AN4">
         <v>-108.0887396165827</v>
@@ -8564,13 +8564,13 @@
         <v>106.1949204574585</v>
       </c>
       <c r="AP4">
-        <v>-10.80277169013766</v>
+        <v>-10.80277169013768</v>
       </c>
       <c r="AQ4">
         <v>-108.0887396163351</v>
       </c>
       <c r="AR4">
-        <v>106.1949204570493</v>
+        <v>106.1949204570494</v>
       </c>
     </row>
   </sheetData>
@@ -8761,40 +8761,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.624739819041317E-09</v>
+        <v>-2.624740242438222E-09</v>
       </c>
       <c r="O2">
-        <v>-1.140189397355519E-09</v>
+        <v>-1.140188116609644E-09</v>
       </c>
       <c r="P2">
-        <v>-1.721682363949232E-10</v>
+        <v>-1.721668711567815E-10</v>
       </c>
       <c r="Q2">
-        <v>2.624738827563759E-09</v>
+        <v>2.624744597165584E-09</v>
       </c>
       <c r="R2">
-        <v>1.140191939492998E-09</v>
+        <v>1.140192293640149E-09</v>
       </c>
       <c r="S2">
-        <v>1.721648036084517E-10</v>
+        <v>1.721646997100813E-10</v>
       </c>
       <c r="T2">
-        <v>1.117779327206008E-09</v>
+        <v>1.117770257150939E-09</v>
       </c>
       <c r="U2">
-        <v>-1.947063117584023E-09</v>
+        <v>-1.947062467508032E-09</v>
       </c>
       <c r="V2">
-        <v>2.505935859623044E-09</v>
+        <v>2.505943320123472E-09</v>
       </c>
       <c r="W2">
-        <v>-1.117781098754809E-09</v>
+        <v>-1.117771414731701E-09</v>
       </c>
       <c r="X2">
-        <v>1.947067629334371E-09</v>
+        <v>1.947062171609823E-09</v>
       </c>
       <c r="Y2">
-        <v>-2.505932147265233E-09</v>
+        <v>-2.505943950762727E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -8815,25 +8815,25 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.5421614591499193</v>
+        <v>0.5421614591499188</v>
       </c>
       <c r="AH2">
-        <v>0.8576025463155463</v>
+        <v>0.8576025463155459</v>
       </c>
       <c r="AI2">
-        <v>0.9547184906659627</v>
+        <v>0.954718490665963</v>
       </c>
       <c r="AJ2">
-        <v>0.5421614591770476</v>
+        <v>0.5421614591770472</v>
       </c>
       <c r="AK2">
-        <v>0.8576025463355481</v>
+        <v>0.8576025463355478</v>
       </c>
       <c r="AL2">
-        <v>0.9547184906556984</v>
+        <v>0.9547184906556985</v>
       </c>
       <c r="AM2">
-        <v>-10.80277169403311</v>
+        <v>-10.80277169403308</v>
       </c>
       <c r="AN2">
         <v>-108.0887396155924</v>
@@ -8842,13 +8842,13 @@
         <v>106.1949204558219</v>
       </c>
       <c r="AP2">
-        <v>-10.80277169013766</v>
+        <v>-10.80277169013768</v>
       </c>
       <c r="AQ2">
         <v>-108.0887396163351</v>
       </c>
       <c r="AR2">
-        <v>106.1949204570493</v>
+        <v>106.1949204570494</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -8892,40 +8892,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.749113090549533E-10</v>
+        <v>8.74924345849572E-10</v>
       </c>
       <c r="O3">
-        <v>3.800701862802415E-10</v>
+        <v>3.800673094535485E-10</v>
       </c>
       <c r="P3">
-        <v>5.738604858195407E-11</v>
+        <v>5.738920193138256E-11</v>
       </c>
       <c r="Q3">
-        <v>-8.749125413934726E-10</v>
+        <v>-8.749250366655872E-10</v>
       </c>
       <c r="R3">
-        <v>-3.800733590300143E-10</v>
+        <v>-3.800638019512109E-10</v>
       </c>
       <c r="S3">
-        <v>-5.738839566523298E-11</v>
+        <v>-5.739154901466137E-11</v>
       </c>
       <c r="T3">
-        <v>-3.725988348153686E-10</v>
+        <v>-3.725921715269845E-10</v>
       </c>
       <c r="U3">
-        <v>6.490230088423601E-10</v>
+        <v>6.490207432794484E-10</v>
       </c>
       <c r="V3">
-        <v>-8.353003718685592E-10</v>
+        <v>-8.353112293612237E-10</v>
       </c>
       <c r="W3">
-        <v>3.725958018178885E-10</v>
+        <v>3.725919765439894E-10</v>
       </c>
       <c r="X3">
-        <v>-6.490294513805402E-10</v>
+        <v>-6.490165468912689E-10</v>
       </c>
       <c r="Y3">
-        <v>8.353043995340853E-10</v>
+        <v>8.353152570267501E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -8949,22 +8949,22 @@
         <v>0.5421614591860903</v>
       </c>
       <c r="AH3">
-        <v>0.8576025463422151</v>
+        <v>0.857602546342215</v>
       </c>
       <c r="AI3">
-        <v>0.9547184906522771</v>
+        <v>0.954718490652277</v>
       </c>
       <c r="AJ3">
-        <v>0.5421614591770476</v>
+        <v>0.5421614591770472</v>
       </c>
       <c r="AK3">
-        <v>0.8576025463355481</v>
+        <v>0.8576025463355478</v>
       </c>
       <c r="AL3">
-        <v>0.9547184906556984</v>
+        <v>0.9547184906556985</v>
       </c>
       <c r="AM3">
-        <v>-10.80277168883916</v>
+        <v>-10.80277168883918</v>
       </c>
       <c r="AN3">
         <v>-108.0887396165827</v>
@@ -8973,13 +8973,13 @@
         <v>106.1949204574585</v>
       </c>
       <c r="AP3">
-        <v>-10.80277169013766</v>
+        <v>-10.80277169013768</v>
       </c>
       <c r="AQ3">
         <v>-108.0887396163351</v>
       </c>
       <c r="AR3">
-        <v>106.1949204570493</v>
+        <v>106.1949204570494</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -9023,40 +9023,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.74922843833133E-10</v>
+        <v>8.74924345849572E-10</v>
       </c>
       <c r="O4">
-        <v>3.800634284037151E-10</v>
+        <v>3.800673094535485E-10</v>
       </c>
       <c r="P4">
-        <v>5.739326543957206E-11</v>
+        <v>5.738920193138256E-11</v>
       </c>
       <c r="Q4">
-        <v>-8.749235948183155E-10</v>
+        <v>-8.749250366655872E-10</v>
       </c>
       <c r="R4">
-        <v>-3.800605127590553E-10</v>
+        <v>-3.800638019512109E-10</v>
       </c>
       <c r="S4">
-        <v>-5.739669827211725E-11</v>
+        <v>-5.739154901466137E-11</v>
       </c>
       <c r="T4">
-        <v>-3.725931921900872E-10</v>
+        <v>-3.725921715269845E-10</v>
       </c>
       <c r="U4">
-        <v>6.490252161869598E-10</v>
+        <v>6.490207432794484E-10</v>
       </c>
       <c r="V4">
-        <v>-8.353171131869368E-10</v>
+        <v>-8.353112293612237E-10</v>
       </c>
       <c r="W4">
-        <v>3.725926818721497E-10</v>
+        <v>3.725919765439894E-10</v>
       </c>
       <c r="X4">
-        <v>-6.490293737561246E-10</v>
+        <v>-6.490165468912689E-10</v>
       </c>
       <c r="Y4">
-        <v>8.353208255175203E-10</v>
+        <v>8.353152570267501E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -9077,7 +9077,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.5421614591860905</v>
+        <v>0.5421614591860903</v>
       </c>
       <c r="AH4">
         <v>0.857602546342215</v>
@@ -9086,16 +9086,16 @@
         <v>0.954718490652277</v>
       </c>
       <c r="AJ4">
-        <v>0.5421614591770476</v>
+        <v>0.5421614591770472</v>
       </c>
       <c r="AK4">
-        <v>0.8576025463355481</v>
+        <v>0.8576025463355478</v>
       </c>
       <c r="AL4">
-        <v>0.9547184906556984</v>
+        <v>0.9547184906556985</v>
       </c>
       <c r="AM4">
-        <v>-10.80277168883915</v>
+        <v>-10.80277168883918</v>
       </c>
       <c r="AN4">
         <v>-108.0887396165827</v>
@@ -9104,13 +9104,13 @@
         <v>106.1949204574585</v>
       </c>
       <c r="AP4">
-        <v>-10.80277169013766</v>
+        <v>-10.80277169013768</v>
       </c>
       <c r="AQ4">
         <v>-108.0887396163351</v>
       </c>
       <c r="AR4">
-        <v>106.1949204570493</v>
+        <v>106.1949204570494</v>
       </c>
     </row>
   </sheetData>
@@ -9301,40 +9301,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.957792415758428E-09</v>
+        <v>-2.957775046935625E-09</v>
       </c>
       <c r="O2">
-        <v>-7.394463667101122E-10</v>
+        <v>-7.394376822987164E-10</v>
       </c>
       <c r="P2">
-        <v>-7.394498411229207E-10</v>
+        <v>-7.394394198292254E-10</v>
       </c>
       <c r="Q2">
-        <v>2.957785468292752E-09</v>
+        <v>2.957771573234509E-09</v>
       </c>
       <c r="R2">
-        <v>7.394411565073844E-10</v>
+        <v>7.394463671542229E-10</v>
       </c>
       <c r="S2">
-        <v>7.394463678024659E-10</v>
+        <v>7.394359465087713E-10</v>
       </c>
       <c r="T2">
-        <v>3.126380443172149E-14</v>
+        <v>2.431627531316581E-14</v>
       </c>
       <c r="U2">
-        <v>3.842268451026756E-09</v>
+        <v>3.842264977262202E-09</v>
       </c>
       <c r="V2">
-        <v>-3.842254560405036E-09</v>
+        <v>-3.842254560405035E-09</v>
       </c>
       <c r="W2">
-        <v>-2.77899678854319E-14</v>
+        <v>-2.084243876694143E-14</v>
       </c>
       <c r="X2">
-        <v>-3.842263239876021E-09</v>
+        <v>-3.842266713640583E-09</v>
       </c>
       <c r="Y2">
-        <v>3.842254560908927E-09</v>
+        <v>3.842254560908926E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -9355,40 +9355,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.7333333491947052</v>
+        <v>0.7333333491947056</v>
       </c>
       <c r="AH2">
-        <v>0.3666666743874873</v>
+        <v>0.3666666743874878</v>
       </c>
       <c r="AI2">
-        <v>0.366666674807224</v>
+        <v>0.3666666748072238</v>
       </c>
       <c r="AJ2">
-        <v>0.7333333492104352</v>
+        <v>0.7333333492104358</v>
       </c>
       <c r="AK2">
-        <v>0.3666666743489829</v>
+        <v>0.3666666743489834</v>
       </c>
       <c r="AL2">
-        <v>0.366666674861458</v>
+        <v>0.3666666748614578</v>
       </c>
       <c r="AM2">
-        <v>1.484175908440117E-09</v>
+        <v>1.484115082384873E-09</v>
       </c>
       <c r="AN2">
         <v>-179.9999999988592</v>
       </c>
       <c r="AO2">
-        <v>-179.9999999981703</v>
+        <v>-179.9999999981702</v>
       </c>
       <c r="AP2">
-        <v>2.878629163342476E-09</v>
+        <v>2.878568995013931E-09</v>
       </c>
       <c r="AQ2">
         <v>-179.9999999910787</v>
       </c>
       <c r="AR2">
-        <v>179.9999999968235</v>
+        <v>179.9999999968236</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -9432,40 +9432,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>9.858995413999561E-10</v>
+        <v>9.859238577518851E-10</v>
       </c>
       <c r="O3">
-        <v>2.464774907480086E-10</v>
+        <v>2.464722801011692E-10</v>
       </c>
       <c r="P3">
-        <v>2.46494859786901E-10</v>
+        <v>2.464983335514635E-10</v>
       </c>
       <c r="Q3">
-        <v>-9.85913436451153E-10</v>
+        <v>-9.859308052739588E-10</v>
       </c>
       <c r="R3">
-        <v>-2.464757538163842E-10</v>
+        <v>-2.464705431695456E-10</v>
       </c>
       <c r="S3">
-        <v>-2.465052810312465E-10</v>
+        <v>-2.465018072666812E-10</v>
       </c>
       <c r="T3">
-        <v>-1.04212361522868E-14</v>
+        <v>3.473822092887121E-15</v>
       </c>
       <c r="U3">
-        <v>-1.280756150118301E-09</v>
+        <v>-1.280752676353743E-09</v>
       </c>
       <c r="V3">
-        <v>1.28075615204505E-09</v>
+        <v>1.280756152045048E-09</v>
       </c>
       <c r="W3">
-        <v>2.084253783305802E-14</v>
+        <v>6.94747958863143E-15</v>
       </c>
       <c r="X3">
-        <v>1.280761360821125E-09</v>
+        <v>1.280757887056569E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.280763099518187E-09</v>
+        <v>-1.280756151989059E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -9486,25 +9486,25 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.7333333492156778</v>
+        <v>0.7333333492156789</v>
       </c>
       <c r="AH3">
-        <v>0.3666666743361487</v>
+        <v>0.3666666743361488</v>
       </c>
       <c r="AI3">
-        <v>0.3666666748795367</v>
+        <v>0.366666674879536</v>
       </c>
       <c r="AJ3">
-        <v>0.7333333492104352</v>
+        <v>0.7333333492104358</v>
       </c>
       <c r="AK3">
-        <v>0.3666666743489829</v>
+        <v>0.3666666743489834</v>
       </c>
       <c r="AL3">
-        <v>0.366666674861458</v>
+        <v>0.3666666748614578</v>
       </c>
       <c r="AM3">
-        <v>3.343440698985656E-09</v>
+        <v>3.343386437934547E-09</v>
       </c>
       <c r="AN3">
         <v>-179.9999999884852</v>
@@ -9513,13 +9513,13 @@
         <v>179.9999999951597</v>
       </c>
       <c r="AP3">
-        <v>2.878629163342476E-09</v>
+        <v>2.878568995013931E-09</v>
       </c>
       <c r="AQ3">
         <v>-179.9999999910787</v>
       </c>
       <c r="AR3">
-        <v>179.9999999968235</v>
+        <v>179.9999999968236</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -9563,40 +9563,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>9.858891201062718E-10</v>
+        <v>9.859238577518851E-10</v>
       </c>
       <c r="O4">
-        <v>2.46477490748009E-10</v>
+        <v>2.464722801011692E-10</v>
       </c>
       <c r="P4">
-        <v>2.464740171995197E-10</v>
+        <v>2.464983335514635E-10</v>
       </c>
       <c r="Q4">
-        <v>-9.858995413929077E-10</v>
+        <v>-9.859308052739588E-10</v>
       </c>
       <c r="R4">
-        <v>-2.464896488746192E-10</v>
+        <v>-2.464705431695456E-10</v>
       </c>
       <c r="S4">
-        <v>-2.46484438443865E-10</v>
+        <v>-2.465018072666812E-10</v>
       </c>
       <c r="T4">
-        <v>3.473822091601737E-15</v>
+        <v>3.473822092887121E-15</v>
       </c>
       <c r="U4">
-        <v>-1.280756150118301E-09</v>
+        <v>-1.280752676353743E-09</v>
       </c>
       <c r="V4">
-        <v>1.280756152045051E-09</v>
+        <v>1.280756152045048E-09</v>
       </c>
       <c r="W4">
-        <v>6.94747958916681E-15</v>
+        <v>6.94747958863143E-15</v>
       </c>
       <c r="X4">
-        <v>1.280761360821123E-09</v>
+        <v>1.280757887056569E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.280763099518188E-09</v>
+        <v>-1.280756151989059E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -9617,25 +9617,25 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.7333333492156778</v>
+        <v>0.7333333492156789</v>
       </c>
       <c r="AH4">
-        <v>0.3666666743361489</v>
+        <v>0.3666666743361488</v>
       </c>
       <c r="AI4">
-        <v>0.3666666748795366</v>
+        <v>0.366666674879536</v>
       </c>
       <c r="AJ4">
-        <v>0.7333333492104352</v>
+        <v>0.7333333492104358</v>
       </c>
       <c r="AK4">
-        <v>0.3666666743489829</v>
+        <v>0.3666666743489834</v>
       </c>
       <c r="AL4">
-        <v>0.366666674861458</v>
+        <v>0.3666666748614578</v>
       </c>
       <c r="AM4">
-        <v>3.343429540757864E-09</v>
+        <v>3.343386437934547E-09</v>
       </c>
       <c r="AN4">
         <v>-179.9999999884852</v>
@@ -9644,13 +9644,13 @@
         <v>179.9999999951597</v>
       </c>
       <c r="AP4">
-        <v>2.878629163342476E-09</v>
+        <v>2.878568995013931E-09</v>
       </c>
       <c r="AQ4">
         <v>-179.9999999910787</v>
       </c>
       <c r="AR4">
-        <v>179.9999999968235</v>
+        <v>179.9999999968236</v>
       </c>
     </row>
   </sheetData>
@@ -9841,40 +9841,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.957792415758428E-09</v>
+        <v>-2.957775046935625E-09</v>
       </c>
       <c r="O2">
-        <v>-7.394463667101122E-10</v>
+        <v>-7.394376822987164E-10</v>
       </c>
       <c r="P2">
-        <v>-7.394498411229207E-10</v>
+        <v>-7.394394198292254E-10</v>
       </c>
       <c r="Q2">
-        <v>2.957785468292752E-09</v>
+        <v>2.957771573234509E-09</v>
       </c>
       <c r="R2">
-        <v>7.394411565073844E-10</v>
+        <v>7.394463671542229E-10</v>
       </c>
       <c r="S2">
-        <v>7.394463678024659E-10</v>
+        <v>7.394359465087713E-10</v>
       </c>
       <c r="T2">
-        <v>3.126380443172149E-14</v>
+        <v>2.431627531316581E-14</v>
       </c>
       <c r="U2">
-        <v>3.842268451026756E-09</v>
+        <v>3.842264977262202E-09</v>
       </c>
       <c r="V2">
-        <v>-3.842254560405036E-09</v>
+        <v>-3.842254560405035E-09</v>
       </c>
       <c r="W2">
-        <v>-2.77899678854319E-14</v>
+        <v>-2.084243876694143E-14</v>
       </c>
       <c r="X2">
-        <v>-3.842263239876021E-09</v>
+        <v>-3.842266713640583E-09</v>
       </c>
       <c r="Y2">
-        <v>3.842254560908927E-09</v>
+        <v>3.842254560908926E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -9895,40 +9895,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.7333333491947052</v>
+        <v>0.7333333491947056</v>
       </c>
       <c r="AH2">
-        <v>0.3666666743874873</v>
+        <v>0.3666666743874878</v>
       </c>
       <c r="AI2">
-        <v>0.366666674807224</v>
+        <v>0.3666666748072238</v>
       </c>
       <c r="AJ2">
-        <v>0.7333333492104352</v>
+        <v>0.7333333492104358</v>
       </c>
       <c r="AK2">
-        <v>0.3666666743489829</v>
+        <v>0.3666666743489834</v>
       </c>
       <c r="AL2">
-        <v>0.366666674861458</v>
+        <v>0.3666666748614578</v>
       </c>
       <c r="AM2">
-        <v>1.484175908440117E-09</v>
+        <v>1.484115082384873E-09</v>
       </c>
       <c r="AN2">
         <v>-179.9999999988592</v>
       </c>
       <c r="AO2">
-        <v>-179.9999999981703</v>
+        <v>-179.9999999981702</v>
       </c>
       <c r="AP2">
-        <v>2.878629163342476E-09</v>
+        <v>2.878568995013931E-09</v>
       </c>
       <c r="AQ2">
         <v>-179.9999999910787</v>
       </c>
       <c r="AR2">
-        <v>179.9999999968235</v>
+        <v>179.9999999968236</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -9972,40 +9972,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>9.858995413999561E-10</v>
+        <v>9.859238577518851E-10</v>
       </c>
       <c r="O3">
-        <v>2.464774907480086E-10</v>
+        <v>2.464722801011692E-10</v>
       </c>
       <c r="P3">
-        <v>2.46494859786901E-10</v>
+        <v>2.464983335514635E-10</v>
       </c>
       <c r="Q3">
-        <v>-9.85913436451153E-10</v>
+        <v>-9.859308052739588E-10</v>
       </c>
       <c r="R3">
-        <v>-2.464757538163842E-10</v>
+        <v>-2.464705431695456E-10</v>
       </c>
       <c r="S3">
-        <v>-2.465052810312465E-10</v>
+        <v>-2.465018072666812E-10</v>
       </c>
       <c r="T3">
-        <v>-1.04212361522868E-14</v>
+        <v>3.473822092887121E-15</v>
       </c>
       <c r="U3">
-        <v>-1.280756150118301E-09</v>
+        <v>-1.280752676353743E-09</v>
       </c>
       <c r="V3">
-        <v>1.28075615204505E-09</v>
+        <v>1.280756152045048E-09</v>
       </c>
       <c r="W3">
-        <v>2.084253783305802E-14</v>
+        <v>6.94747958863143E-15</v>
       </c>
       <c r="X3">
-        <v>1.280761360821125E-09</v>
+        <v>1.280757887056569E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.280763099518187E-09</v>
+        <v>-1.280756151989059E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -10026,25 +10026,25 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.7333333492156778</v>
+        <v>0.7333333492156789</v>
       </c>
       <c r="AH3">
-        <v>0.3666666743361487</v>
+        <v>0.3666666743361488</v>
       </c>
       <c r="AI3">
-        <v>0.3666666748795367</v>
+        <v>0.366666674879536</v>
       </c>
       <c r="AJ3">
-        <v>0.7333333492104352</v>
+        <v>0.7333333492104358</v>
       </c>
       <c r="AK3">
-        <v>0.3666666743489829</v>
+        <v>0.3666666743489834</v>
       </c>
       <c r="AL3">
-        <v>0.366666674861458</v>
+        <v>0.3666666748614578</v>
       </c>
       <c r="AM3">
-        <v>3.343440698985656E-09</v>
+        <v>3.343386437934547E-09</v>
       </c>
       <c r="AN3">
         <v>-179.9999999884852</v>
@@ -10053,13 +10053,13 @@
         <v>179.9999999951597</v>
       </c>
       <c r="AP3">
-        <v>2.878629163342476E-09</v>
+        <v>2.878568995013931E-09</v>
       </c>
       <c r="AQ3">
         <v>-179.9999999910787</v>
       </c>
       <c r="AR3">
-        <v>179.9999999968235</v>
+        <v>179.9999999968236</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -10103,40 +10103,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>9.858891201062718E-10</v>
+        <v>9.859238577518851E-10</v>
       </c>
       <c r="O4">
-        <v>2.46477490748009E-10</v>
+        <v>2.464722801011692E-10</v>
       </c>
       <c r="P4">
-        <v>2.464740171995197E-10</v>
+        <v>2.464983335514635E-10</v>
       </c>
       <c r="Q4">
-        <v>-9.858995413929077E-10</v>
+        <v>-9.859308052739588E-10</v>
       </c>
       <c r="R4">
-        <v>-2.464896488746192E-10</v>
+        <v>-2.464705431695456E-10</v>
       </c>
       <c r="S4">
-        <v>-2.46484438443865E-10</v>
+        <v>-2.465018072666812E-10</v>
       </c>
       <c r="T4">
-        <v>3.473822091601737E-15</v>
+        <v>3.473822092887121E-15</v>
       </c>
       <c r="U4">
-        <v>-1.280756150118301E-09</v>
+        <v>-1.280752676353743E-09</v>
       </c>
       <c r="V4">
-        <v>1.280756152045051E-09</v>
+        <v>1.280756152045048E-09</v>
       </c>
       <c r="W4">
-        <v>6.94747958916681E-15</v>
+        <v>6.94747958863143E-15</v>
       </c>
       <c r="X4">
-        <v>1.280761360821123E-09</v>
+        <v>1.280757887056569E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.280763099518188E-09</v>
+        <v>-1.280756151989059E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -10157,25 +10157,25 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.7333333492156778</v>
+        <v>0.7333333492156789</v>
       </c>
       <c r="AH4">
-        <v>0.3666666743361489</v>
+        <v>0.3666666743361488</v>
       </c>
       <c r="AI4">
-        <v>0.3666666748795366</v>
+        <v>0.366666674879536</v>
       </c>
       <c r="AJ4">
-        <v>0.7333333492104352</v>
+        <v>0.7333333492104358</v>
       </c>
       <c r="AK4">
-        <v>0.3666666743489829</v>
+        <v>0.3666666743489834</v>
       </c>
       <c r="AL4">
-        <v>0.366666674861458</v>
+        <v>0.3666666748614578</v>
       </c>
       <c r="AM4">
-        <v>3.343429540757864E-09</v>
+        <v>3.343386437934547E-09</v>
       </c>
       <c r="AN4">
         <v>-179.9999999884852</v>
@@ -10184,13 +10184,13 @@
         <v>179.9999999951597</v>
       </c>
       <c r="AP4">
-        <v>2.878629163342476E-09</v>
+        <v>2.878568995013931E-09</v>
       </c>
       <c r="AQ4">
         <v>-179.9999999910787</v>
       </c>
       <c r="AR4">
-        <v>179.9999999968235</v>
+        <v>179.9999999968236</v>
       </c>
     </row>
   </sheetData>
@@ -10381,40 +10381,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.957792415758428E-09</v>
+        <v>-2.957775046935625E-09</v>
       </c>
       <c r="O2">
-        <v>-7.394463667101122E-10</v>
+        <v>-7.394376822987164E-10</v>
       </c>
       <c r="P2">
-        <v>-7.394498411229207E-10</v>
+        <v>-7.394394198292254E-10</v>
       </c>
       <c r="Q2">
-        <v>2.957785468292752E-09</v>
+        <v>2.957771573234509E-09</v>
       </c>
       <c r="R2">
-        <v>7.394411565073844E-10</v>
+        <v>7.394463671542229E-10</v>
       </c>
       <c r="S2">
-        <v>7.394463678024659E-10</v>
+        <v>7.394359465087713E-10</v>
       </c>
       <c r="T2">
-        <v>3.126380443172149E-14</v>
+        <v>2.431627531316581E-14</v>
       </c>
       <c r="U2">
-        <v>3.842268451026756E-09</v>
+        <v>3.842264977262202E-09</v>
       </c>
       <c r="V2">
-        <v>-3.842254560405036E-09</v>
+        <v>-3.842254560405035E-09</v>
       </c>
       <c r="W2">
-        <v>-2.77899678854319E-14</v>
+        <v>-2.084243876694143E-14</v>
       </c>
       <c r="X2">
-        <v>-3.842263239876021E-09</v>
+        <v>-3.842266713640583E-09</v>
       </c>
       <c r="Y2">
-        <v>3.842254560908927E-09</v>
+        <v>3.842254560908926E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -10435,40 +10435,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.7333333491947052</v>
+        <v>0.7333333491947056</v>
       </c>
       <c r="AH2">
-        <v>0.3666666743874873</v>
+        <v>0.3666666743874878</v>
       </c>
       <c r="AI2">
-        <v>0.366666674807224</v>
+        <v>0.3666666748072238</v>
       </c>
       <c r="AJ2">
-        <v>0.7333333492104352</v>
+        <v>0.7333333492104358</v>
       </c>
       <c r="AK2">
-        <v>0.3666666743489829</v>
+        <v>0.3666666743489834</v>
       </c>
       <c r="AL2">
-        <v>0.366666674861458</v>
+        <v>0.3666666748614578</v>
       </c>
       <c r="AM2">
-        <v>1.484175908440117E-09</v>
+        <v>1.484115082384873E-09</v>
       </c>
       <c r="AN2">
         <v>-179.9999999988592</v>
       </c>
       <c r="AO2">
-        <v>-179.9999999981703</v>
+        <v>-179.9999999981702</v>
       </c>
       <c r="AP2">
-        <v>2.878629163342476E-09</v>
+        <v>2.878568995013931E-09</v>
       </c>
       <c r="AQ2">
         <v>-179.9999999910787</v>
       </c>
       <c r="AR2">
-        <v>179.9999999968235</v>
+        <v>179.9999999968236</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -10512,40 +10512,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>9.858995413999561E-10</v>
+        <v>9.859238577518851E-10</v>
       </c>
       <c r="O3">
-        <v>2.464774907480086E-10</v>
+        <v>2.464722801011692E-10</v>
       </c>
       <c r="P3">
-        <v>2.46494859786901E-10</v>
+        <v>2.464983335514635E-10</v>
       </c>
       <c r="Q3">
-        <v>-9.85913436451153E-10</v>
+        <v>-9.859308052739588E-10</v>
       </c>
       <c r="R3">
-        <v>-2.464757538163842E-10</v>
+        <v>-2.464705431695456E-10</v>
       </c>
       <c r="S3">
-        <v>-2.465052810312465E-10</v>
+        <v>-2.465018072666812E-10</v>
       </c>
       <c r="T3">
-        <v>-1.04212361522868E-14</v>
+        <v>3.473822092887121E-15</v>
       </c>
       <c r="U3">
-        <v>-1.280756150118301E-09</v>
+        <v>-1.280752676353743E-09</v>
       </c>
       <c r="V3">
-        <v>1.28075615204505E-09</v>
+        <v>1.280756152045048E-09</v>
       </c>
       <c r="W3">
-        <v>2.084253783305802E-14</v>
+        <v>6.94747958863143E-15</v>
       </c>
       <c r="X3">
-        <v>1.280761360821125E-09</v>
+        <v>1.280757887056569E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.280763099518187E-09</v>
+        <v>-1.280756151989059E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -10566,25 +10566,25 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.7333333492156778</v>
+        <v>0.7333333492156789</v>
       </c>
       <c r="AH3">
-        <v>0.3666666743361487</v>
+        <v>0.3666666743361488</v>
       </c>
       <c r="AI3">
-        <v>0.3666666748795367</v>
+        <v>0.366666674879536</v>
       </c>
       <c r="AJ3">
-        <v>0.7333333492104352</v>
+        <v>0.7333333492104358</v>
       </c>
       <c r="AK3">
-        <v>0.3666666743489829</v>
+        <v>0.3666666743489834</v>
       </c>
       <c r="AL3">
-        <v>0.366666674861458</v>
+        <v>0.3666666748614578</v>
       </c>
       <c r="AM3">
-        <v>3.343440698985656E-09</v>
+        <v>3.343386437934547E-09</v>
       </c>
       <c r="AN3">
         <v>-179.9999999884852</v>
@@ -10593,13 +10593,13 @@
         <v>179.9999999951597</v>
       </c>
       <c r="AP3">
-        <v>2.878629163342476E-09</v>
+        <v>2.878568995013931E-09</v>
       </c>
       <c r="AQ3">
         <v>-179.9999999910787</v>
       </c>
       <c r="AR3">
-        <v>179.9999999968235</v>
+        <v>179.9999999968236</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -10643,40 +10643,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>9.858891201062718E-10</v>
+        <v>9.859238577518851E-10</v>
       </c>
       <c r="O4">
-        <v>2.46477490748009E-10</v>
+        <v>2.464722801011692E-10</v>
       </c>
       <c r="P4">
-        <v>2.464740171995197E-10</v>
+        <v>2.464983335514635E-10</v>
       </c>
       <c r="Q4">
-        <v>-9.858995413929077E-10</v>
+        <v>-9.859308052739588E-10</v>
       </c>
       <c r="R4">
-        <v>-2.464896488746192E-10</v>
+        <v>-2.464705431695456E-10</v>
       </c>
       <c r="S4">
-        <v>-2.46484438443865E-10</v>
+        <v>-2.465018072666812E-10</v>
       </c>
       <c r="T4">
-        <v>3.473822091601737E-15</v>
+        <v>3.473822092887121E-15</v>
       </c>
       <c r="U4">
-        <v>-1.280756150118301E-09</v>
+        <v>-1.280752676353743E-09</v>
       </c>
       <c r="V4">
-        <v>1.280756152045051E-09</v>
+        <v>1.280756152045048E-09</v>
       </c>
       <c r="W4">
-        <v>6.94747958916681E-15</v>
+        <v>6.94747958863143E-15</v>
       </c>
       <c r="X4">
-        <v>1.280761360821123E-09</v>
+        <v>1.280757887056569E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.280763099518188E-09</v>
+        <v>-1.280756151989059E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -10697,25 +10697,25 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.7333333492156778</v>
+        <v>0.7333333492156789</v>
       </c>
       <c r="AH4">
-        <v>0.3666666743361489</v>
+        <v>0.3666666743361488</v>
       </c>
       <c r="AI4">
-        <v>0.3666666748795366</v>
+        <v>0.366666674879536</v>
       </c>
       <c r="AJ4">
-        <v>0.7333333492104352</v>
+        <v>0.7333333492104358</v>
       </c>
       <c r="AK4">
-        <v>0.3666666743489829</v>
+        <v>0.3666666743489834</v>
       </c>
       <c r="AL4">
-        <v>0.366666674861458</v>
+        <v>0.3666666748614578</v>
       </c>
       <c r="AM4">
-        <v>3.343429540757864E-09</v>
+        <v>3.343386437934547E-09</v>
       </c>
       <c r="AN4">
         <v>-179.9999999884852</v>
@@ -10724,13 +10724,13 @@
         <v>179.9999999951597</v>
       </c>
       <c r="AP4">
-        <v>2.878629163342476E-09</v>
+        <v>2.878568995013931E-09</v>
       </c>
       <c r="AQ4">
         <v>-179.9999999910787</v>
       </c>
       <c r="AR4">
-        <v>179.9999999968235</v>
+        <v>179.9999999968236</v>
       </c>
     </row>
   </sheetData>
@@ -10921,40 +10921,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.957792415758428E-09</v>
+        <v>-2.957775046935625E-09</v>
       </c>
       <c r="O2">
-        <v>-7.394463667101122E-10</v>
+        <v>-7.394376822987164E-10</v>
       </c>
       <c r="P2">
-        <v>-7.394498411229207E-10</v>
+        <v>-7.394394198292254E-10</v>
       </c>
       <c r="Q2">
-        <v>2.957785468292752E-09</v>
+        <v>2.957771573234509E-09</v>
       </c>
       <c r="R2">
-        <v>7.394411565073844E-10</v>
+        <v>7.394463671542229E-10</v>
       </c>
       <c r="S2">
-        <v>7.394463678024659E-10</v>
+        <v>7.394359465087713E-10</v>
       </c>
       <c r="T2">
-        <v>3.126380443172149E-14</v>
+        <v>2.431627531316581E-14</v>
       </c>
       <c r="U2">
-        <v>3.842268451026756E-09</v>
+        <v>3.842264977262202E-09</v>
       </c>
       <c r="V2">
-        <v>-3.842254560405036E-09</v>
+        <v>-3.842254560405035E-09</v>
       </c>
       <c r="W2">
-        <v>-2.77899678854319E-14</v>
+        <v>-2.084243876694143E-14</v>
       </c>
       <c r="X2">
-        <v>-3.842263239876021E-09</v>
+        <v>-3.842266713640583E-09</v>
       </c>
       <c r="Y2">
-        <v>3.842254560908927E-09</v>
+        <v>3.842254560908926E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -10975,40 +10975,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.7333333491947052</v>
+        <v>0.7333333491947056</v>
       </c>
       <c r="AH2">
-        <v>0.3666666743874873</v>
+        <v>0.3666666743874878</v>
       </c>
       <c r="AI2">
-        <v>0.366666674807224</v>
+        <v>0.3666666748072238</v>
       </c>
       <c r="AJ2">
-        <v>0.7333333492104352</v>
+        <v>0.7333333492104358</v>
       </c>
       <c r="AK2">
-        <v>0.3666666743489829</v>
+        <v>0.3666666743489834</v>
       </c>
       <c r="AL2">
-        <v>0.366666674861458</v>
+        <v>0.3666666748614578</v>
       </c>
       <c r="AM2">
-        <v>1.484175908440117E-09</v>
+        <v>1.484115082384873E-09</v>
       </c>
       <c r="AN2">
         <v>-179.9999999988592</v>
       </c>
       <c r="AO2">
-        <v>-179.9999999981703</v>
+        <v>-179.9999999981702</v>
       </c>
       <c r="AP2">
-        <v>2.878629163342476E-09</v>
+        <v>2.878568995013931E-09</v>
       </c>
       <c r="AQ2">
         <v>-179.9999999910787</v>
       </c>
       <c r="AR2">
-        <v>179.9999999968235</v>
+        <v>179.9999999968236</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -11052,40 +11052,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>9.858995413999561E-10</v>
+        <v>9.859238577518851E-10</v>
       </c>
       <c r="O3">
-        <v>2.464774907480086E-10</v>
+        <v>2.464722801011692E-10</v>
       </c>
       <c r="P3">
-        <v>2.46494859786901E-10</v>
+        <v>2.464983335514635E-10</v>
       </c>
       <c r="Q3">
-        <v>-9.85913436451153E-10</v>
+        <v>-9.859308052739588E-10</v>
       </c>
       <c r="R3">
-        <v>-2.464757538163842E-10</v>
+        <v>-2.464705431695456E-10</v>
       </c>
       <c r="S3">
-        <v>-2.465052810312465E-10</v>
+        <v>-2.465018072666812E-10</v>
       </c>
       <c r="T3">
-        <v>-1.04212361522868E-14</v>
+        <v>3.473822092887121E-15</v>
       </c>
       <c r="U3">
-        <v>-1.280756150118301E-09</v>
+        <v>-1.280752676353743E-09</v>
       </c>
       <c r="V3">
-        <v>1.28075615204505E-09</v>
+        <v>1.280756152045048E-09</v>
       </c>
       <c r="W3">
-        <v>2.084253783305802E-14</v>
+        <v>6.94747958863143E-15</v>
       </c>
       <c r="X3">
-        <v>1.280761360821125E-09</v>
+        <v>1.280757887056569E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.280763099518187E-09</v>
+        <v>-1.280756151989059E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -11106,25 +11106,25 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.7333333492156778</v>
+        <v>0.7333333492156789</v>
       </c>
       <c r="AH3">
-        <v>0.3666666743361487</v>
+        <v>0.3666666743361488</v>
       </c>
       <c r="AI3">
-        <v>0.3666666748795367</v>
+        <v>0.366666674879536</v>
       </c>
       <c r="AJ3">
-        <v>0.7333333492104352</v>
+        <v>0.7333333492104358</v>
       </c>
       <c r="AK3">
-        <v>0.3666666743489829</v>
+        <v>0.3666666743489834</v>
       </c>
       <c r="AL3">
-        <v>0.366666674861458</v>
+        <v>0.3666666748614578</v>
       </c>
       <c r="AM3">
-        <v>3.343440698985656E-09</v>
+        <v>3.343386437934547E-09</v>
       </c>
       <c r="AN3">
         <v>-179.9999999884852</v>
@@ -11133,13 +11133,13 @@
         <v>179.9999999951597</v>
       </c>
       <c r="AP3">
-        <v>2.878629163342476E-09</v>
+        <v>2.878568995013931E-09</v>
       </c>
       <c r="AQ3">
         <v>-179.9999999910787</v>
       </c>
       <c r="AR3">
-        <v>179.9999999968235</v>
+        <v>179.9999999968236</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -11183,40 +11183,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>9.858891201062718E-10</v>
+        <v>9.859238577518851E-10</v>
       </c>
       <c r="O4">
-        <v>2.46477490748009E-10</v>
+        <v>2.464722801011692E-10</v>
       </c>
       <c r="P4">
-        <v>2.464740171995197E-10</v>
+        <v>2.464983335514635E-10</v>
       </c>
       <c r="Q4">
-        <v>-9.858995413929077E-10</v>
+        <v>-9.859308052739588E-10</v>
       </c>
       <c r="R4">
-        <v>-2.464896488746192E-10</v>
+        <v>-2.464705431695456E-10</v>
       </c>
       <c r="S4">
-        <v>-2.46484438443865E-10</v>
+        <v>-2.465018072666812E-10</v>
       </c>
       <c r="T4">
-        <v>3.473822091601737E-15</v>
+        <v>3.473822092887121E-15</v>
       </c>
       <c r="U4">
-        <v>-1.280756150118301E-09</v>
+        <v>-1.280752676353743E-09</v>
       </c>
       <c r="V4">
-        <v>1.280756152045051E-09</v>
+        <v>1.280756152045048E-09</v>
       </c>
       <c r="W4">
-        <v>6.94747958916681E-15</v>
+        <v>6.94747958863143E-15</v>
       </c>
       <c r="X4">
-        <v>1.280761360821123E-09</v>
+        <v>1.280757887056569E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.280763099518188E-09</v>
+        <v>-1.280756151989059E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -11237,25 +11237,25 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.7333333492156778</v>
+        <v>0.7333333492156789</v>
       </c>
       <c r="AH4">
-        <v>0.3666666743361489</v>
+        <v>0.3666666743361488</v>
       </c>
       <c r="AI4">
-        <v>0.3666666748795366</v>
+        <v>0.366666674879536</v>
       </c>
       <c r="AJ4">
-        <v>0.7333333492104352</v>
+        <v>0.7333333492104358</v>
       </c>
       <c r="AK4">
-        <v>0.3666666743489829</v>
+        <v>0.3666666743489834</v>
       </c>
       <c r="AL4">
-        <v>0.366666674861458</v>
+        <v>0.3666666748614578</v>
       </c>
       <c r="AM4">
-        <v>3.343429540757864E-09</v>
+        <v>3.343386437934547E-09</v>
       </c>
       <c r="AN4">
         <v>-179.9999999884852</v>
@@ -11264,13 +11264,13 @@
         <v>179.9999999951597</v>
       </c>
       <c r="AP4">
-        <v>2.878629163342476E-09</v>
+        <v>2.878568995013931E-09</v>
       </c>
       <c r="AQ4">
         <v>-179.9999999910787</v>
       </c>
       <c r="AR4">
-        <v>179.9999999968235</v>
+        <v>179.9999999968236</v>
       </c>
     </row>
   </sheetData>
@@ -11461,40 +11461,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.444432804308156E-09</v>
+        <v>-2.4444422782113E-09</v>
       </c>
       <c r="O2">
-        <v>-6.111141220671274E-10</v>
+        <v>-6.111172800348397E-10</v>
       </c>
       <c r="P2">
-        <v>-6.111078067404257E-10</v>
+        <v>-6.11104648772715E-10</v>
       </c>
       <c r="Q2">
-        <v>2.444432804408827E-09</v>
+        <v>2.444440699328114E-09</v>
       </c>
       <c r="R2">
-        <v>6.111157017556817E-10</v>
+        <v>6.111125437879625E-10</v>
       </c>
       <c r="S2">
-        <v>6.111093864289837E-10</v>
+        <v>6.111078074451336E-10</v>
       </c>
       <c r="T2">
-        <v>-3.157966158335943E-15</v>
+        <v>-1.263186930207587E-14</v>
       </c>
       <c r="U2">
-        <v>3.175407589588605E-09</v>
+        <v>3.175402852637039E-09</v>
       </c>
       <c r="V2">
-        <v>-3.175412329677697E-09</v>
+        <v>-3.175418645613133E-09</v>
       </c>
       <c r="W2">
-        <v>5.793513778441608E-20</v>
+        <v>9.473961080243245E-15</v>
       </c>
       <c r="X2">
-        <v>-3.175413905107594E-09</v>
+        <v>-3.175406010188317E-09</v>
       </c>
       <c r="Y2">
-        <v>3.175412330094134E-09</v>
+        <v>3.175412330094137E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -11518,37 +11518,37 @@
         <v>0.6666666666635033</v>
       </c>
       <c r="AH2">
-        <v>0.3333333331670295</v>
+        <v>0.3333333331670298</v>
       </c>
       <c r="AI2">
-        <v>0.3333333334964809</v>
+        <v>0.3333333334964814</v>
       </c>
       <c r="AJ2">
-        <v>0.6666666666909591</v>
+        <v>0.6666666666909593</v>
       </c>
       <c r="AK2">
-        <v>0.333333333138604</v>
+        <v>0.3333333331386044</v>
       </c>
       <c r="AL2">
-        <v>0.3333333335523625</v>
+        <v>0.3333333335523629</v>
       </c>
       <c r="AM2">
-        <v>-3.647478582900219E-11</v>
+        <v>-3.646721717179536E-11</v>
       </c>
       <c r="AN2">
         <v>-179.9999999981412</v>
       </c>
       <c r="AO2">
-        <v>179.9999999980558</v>
+        <v>179.9999999980557</v>
       </c>
       <c r="AP2">
-        <v>1.357958735690672E-09</v>
+        <v>1.35798463893055E-09</v>
       </c>
       <c r="AQ2">
-        <v>-179.9999999844856</v>
+        <v>-179.9999999844857</v>
       </c>
       <c r="AR2">
-        <v>179.999999987189</v>
+        <v>179.9999999871889</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -11592,40 +11592,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.148330405881314E-10</v>
+        <v>8.148140927818433E-10</v>
       </c>
       <c r="O3">
-        <v>2.037141815720551E-10</v>
+        <v>2.03701549701195E-10</v>
       </c>
       <c r="P3">
-        <v>2.036983919363871E-10</v>
+        <v>2.037015499041037E-10</v>
       </c>
       <c r="Q3">
-        <v>-8.148267246415159E-10</v>
+        <v>-8.148125137867999E-10</v>
       </c>
       <c r="R3">
-        <v>-2.037094445421823E-10</v>
+        <v>-2.037062865744642E-10</v>
       </c>
       <c r="S3">
-        <v>-2.036968128742304E-10</v>
+        <v>-2.0369839185809E-10</v>
       </c>
       <c r="T3">
-        <v>-1.894778036504951E-14</v>
+        <v>2.592202017482872E-20</v>
       </c>
       <c r="U3">
-        <v>-1.05849235477434E-09</v>
+        <v>-1.058471827984214E-09</v>
       </c>
       <c r="V3">
-        <v>1.058474987367939E-09</v>
+        <v>1.058468671432505E-09</v>
       </c>
       <c r="W3">
-        <v>1.57898192609352E-14</v>
+        <v>-3.157987026722799E-15</v>
       </c>
       <c r="X3">
-        <v>1.058489196852902E-09</v>
+        <v>1.058474985998197E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.058481303257101E-09</v>
+        <v>-1.058474987321669E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -11646,40 +11646,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.6666666667001113</v>
+        <v>0.6666666667001114</v>
       </c>
       <c r="AH3">
-        <v>0.3333333331291287</v>
+        <v>0.3333333331291289</v>
       </c>
       <c r="AI3">
-        <v>0.3333333335709896</v>
+        <v>0.3333333335709899</v>
       </c>
       <c r="AJ3">
-        <v>0.6666666666909591</v>
+        <v>0.6666666666909593</v>
       </c>
       <c r="AK3">
-        <v>0.333333333138604</v>
+        <v>0.3333333331386044</v>
       </c>
       <c r="AL3">
-        <v>0.3333333335523625</v>
+        <v>0.3333333335523629</v>
       </c>
       <c r="AM3">
-        <v>1.822789555263585E-09</v>
+        <v>1.822774502340682E-09</v>
       </c>
       <c r="AN3">
-        <v>-179.9999999799336</v>
+        <v>-179.9999999799338</v>
       </c>
       <c r="AO3">
-        <v>179.9999999835668</v>
+        <v>179.9999999835667</v>
       </c>
       <c r="AP3">
-        <v>1.357958735690672E-09</v>
+        <v>1.35798463893055E-09</v>
       </c>
       <c r="AQ3">
-        <v>-179.9999999844856</v>
+        <v>-179.9999999844857</v>
       </c>
       <c r="AR3">
-        <v>179.999999987189</v>
+        <v>179.9999999871889</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -11723,40 +11723,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.148204087172729E-10</v>
+        <v>8.148140927818433E-10</v>
       </c>
       <c r="O4">
-        <v>2.037015497011994E-10</v>
+        <v>2.03701549701195E-10</v>
       </c>
       <c r="P4">
-        <v>2.037047078718159E-10</v>
+        <v>2.037015499041037E-10</v>
       </c>
       <c r="Q4">
-        <v>-8.148267246415159E-10</v>
+        <v>-8.148125137867999E-10</v>
       </c>
       <c r="R4">
-        <v>-2.037031286067536E-10</v>
+        <v>-2.037062865744642E-10</v>
       </c>
       <c r="S4">
-        <v>-2.036999708419442E-10</v>
+        <v>-2.0369839185809E-10</v>
       </c>
       <c r="T4">
-        <v>-2.210574808019317E-14</v>
+        <v>2.592202017482872E-20</v>
       </c>
       <c r="U4">
-        <v>-1.058479722903494E-09</v>
+        <v>-1.058471827984214E-09</v>
       </c>
       <c r="V4">
-        <v>1.05846235549707E-09</v>
+        <v>1.058468671432505E-09</v>
       </c>
       <c r="W4">
-        <v>1.894778697553961E-14</v>
+        <v>-3.157987026722799E-15</v>
       </c>
       <c r="X4">
-        <v>1.058476564982053E-09</v>
+        <v>1.058474985998197E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.058468671386234E-09</v>
+        <v>-1.058474987321669E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -11777,40 +11777,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.6666666667001111</v>
+        <v>0.6666666667001114</v>
       </c>
       <c r="AH4">
-        <v>0.3333333331291286</v>
+        <v>0.3333333331291289</v>
       </c>
       <c r="AI4">
-        <v>0.3333333335709895</v>
+        <v>0.3333333335709899</v>
       </c>
       <c r="AJ4">
-        <v>0.6666666666909591</v>
+        <v>0.6666666666909593</v>
       </c>
       <c r="AK4">
-        <v>0.333333333138604</v>
+        <v>0.3333333331386044</v>
       </c>
       <c r="AL4">
-        <v>0.3333333335523625</v>
+        <v>0.3333333335523629</v>
       </c>
       <c r="AM4">
-        <v>1.822782942641482E-09</v>
+        <v>1.822774502340682E-09</v>
       </c>
       <c r="AN4">
-        <v>-179.9999999799337</v>
+        <v>-179.9999999799338</v>
       </c>
       <c r="AO4">
-        <v>179.9999999835668</v>
+        <v>179.9999999835667</v>
       </c>
       <c r="AP4">
-        <v>1.357958735690672E-09</v>
+        <v>1.35798463893055E-09</v>
       </c>
       <c r="AQ4">
-        <v>-179.9999999844856</v>
+        <v>-179.9999999844857</v>
       </c>
       <c r="AR4">
-        <v>179.999999987189</v>
+        <v>179.9999999871889</v>
       </c>
     </row>
   </sheetData>
@@ -12226,40 +12226,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.444432804308156E-09</v>
+        <v>-2.4444422782113E-09</v>
       </c>
       <c r="O2">
-        <v>-6.111141220671274E-10</v>
+        <v>-6.111172800348397E-10</v>
       </c>
       <c r="P2">
-        <v>-6.111078067404257E-10</v>
+        <v>-6.11104648772715E-10</v>
       </c>
       <c r="Q2">
-        <v>2.444432804408827E-09</v>
+        <v>2.444440699328114E-09</v>
       </c>
       <c r="R2">
-        <v>6.111157017556817E-10</v>
+        <v>6.111125437879625E-10</v>
       </c>
       <c r="S2">
-        <v>6.111093864289837E-10</v>
+        <v>6.111078074451336E-10</v>
       </c>
       <c r="T2">
-        <v>-3.157966158335943E-15</v>
+        <v>-1.263186930207587E-14</v>
       </c>
       <c r="U2">
-        <v>3.175407589588605E-09</v>
+        <v>3.175402852637039E-09</v>
       </c>
       <c r="V2">
-        <v>-3.175412329677697E-09</v>
+        <v>-3.175418645613133E-09</v>
       </c>
       <c r="W2">
-        <v>5.793513778441608E-20</v>
+        <v>9.473961080243245E-15</v>
       </c>
       <c r="X2">
-        <v>-3.175413905107594E-09</v>
+        <v>-3.175406010188317E-09</v>
       </c>
       <c r="Y2">
-        <v>3.175412330094134E-09</v>
+        <v>3.175412330094137E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -12283,37 +12283,37 @@
         <v>0.6666666666635033</v>
       </c>
       <c r="AH2">
-        <v>0.3333333331670295</v>
+        <v>0.3333333331670298</v>
       </c>
       <c r="AI2">
-        <v>0.3333333334964809</v>
+        <v>0.3333333334964814</v>
       </c>
       <c r="AJ2">
-        <v>0.6666666666909591</v>
+        <v>0.6666666666909593</v>
       </c>
       <c r="AK2">
-        <v>0.333333333138604</v>
+        <v>0.3333333331386044</v>
       </c>
       <c r="AL2">
-        <v>0.3333333335523625</v>
+        <v>0.3333333335523629</v>
       </c>
       <c r="AM2">
-        <v>-3.647478582900219E-11</v>
+        <v>-3.646721717179536E-11</v>
       </c>
       <c r="AN2">
         <v>-179.9999999981412</v>
       </c>
       <c r="AO2">
-        <v>179.9999999980558</v>
+        <v>179.9999999980557</v>
       </c>
       <c r="AP2">
-        <v>1.357958735690672E-09</v>
+        <v>1.35798463893055E-09</v>
       </c>
       <c r="AQ2">
-        <v>-179.9999999844856</v>
+        <v>-179.9999999844857</v>
       </c>
       <c r="AR2">
-        <v>179.999999987189</v>
+        <v>179.9999999871889</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -12357,40 +12357,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.148330405881314E-10</v>
+        <v>8.148140927818433E-10</v>
       </c>
       <c r="O3">
-        <v>2.037141815720551E-10</v>
+        <v>2.03701549701195E-10</v>
       </c>
       <c r="P3">
-        <v>2.036983919363871E-10</v>
+        <v>2.037015499041037E-10</v>
       </c>
       <c r="Q3">
-        <v>-8.148267246415159E-10</v>
+        <v>-8.148125137867999E-10</v>
       </c>
       <c r="R3">
-        <v>-2.037094445421823E-10</v>
+        <v>-2.037062865744642E-10</v>
       </c>
       <c r="S3">
-        <v>-2.036968128742304E-10</v>
+        <v>-2.0369839185809E-10</v>
       </c>
       <c r="T3">
-        <v>-1.894778036504951E-14</v>
+        <v>2.592202017482872E-20</v>
       </c>
       <c r="U3">
-        <v>-1.05849235477434E-09</v>
+        <v>-1.058471827984214E-09</v>
       </c>
       <c r="V3">
-        <v>1.058474987367939E-09</v>
+        <v>1.058468671432505E-09</v>
       </c>
       <c r="W3">
-        <v>1.57898192609352E-14</v>
+        <v>-3.157987026722799E-15</v>
       </c>
       <c r="X3">
-        <v>1.058489196852902E-09</v>
+        <v>1.058474985998197E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.058481303257101E-09</v>
+        <v>-1.058474987321669E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -12411,40 +12411,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.6666666667001113</v>
+        <v>0.6666666667001114</v>
       </c>
       <c r="AH3">
-        <v>0.3333333331291287</v>
+        <v>0.3333333331291289</v>
       </c>
       <c r="AI3">
-        <v>0.3333333335709896</v>
+        <v>0.3333333335709899</v>
       </c>
       <c r="AJ3">
-        <v>0.6666666666909591</v>
+        <v>0.6666666666909593</v>
       </c>
       <c r="AK3">
-        <v>0.333333333138604</v>
+        <v>0.3333333331386044</v>
       </c>
       <c r="AL3">
-        <v>0.3333333335523625</v>
+        <v>0.3333333335523629</v>
       </c>
       <c r="AM3">
-        <v>1.822789555263585E-09</v>
+        <v>1.822774502340682E-09</v>
       </c>
       <c r="AN3">
-        <v>-179.9999999799336</v>
+        <v>-179.9999999799338</v>
       </c>
       <c r="AO3">
-        <v>179.9999999835668</v>
+        <v>179.9999999835667</v>
       </c>
       <c r="AP3">
-        <v>1.357958735690672E-09</v>
+        <v>1.35798463893055E-09</v>
       </c>
       <c r="AQ3">
-        <v>-179.9999999844856</v>
+        <v>-179.9999999844857</v>
       </c>
       <c r="AR3">
-        <v>179.999999987189</v>
+        <v>179.9999999871889</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -12488,40 +12488,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.148204087172729E-10</v>
+        <v>8.148140927818433E-10</v>
       </c>
       <c r="O4">
-        <v>2.037015497011994E-10</v>
+        <v>2.03701549701195E-10</v>
       </c>
       <c r="P4">
-        <v>2.037047078718159E-10</v>
+        <v>2.037015499041037E-10</v>
       </c>
       <c r="Q4">
-        <v>-8.148267246415159E-10</v>
+        <v>-8.148125137867999E-10</v>
       </c>
       <c r="R4">
-        <v>-2.037031286067536E-10</v>
+        <v>-2.037062865744642E-10</v>
       </c>
       <c r="S4">
-        <v>-2.036999708419442E-10</v>
+        <v>-2.0369839185809E-10</v>
       </c>
       <c r="T4">
-        <v>-2.210574808019317E-14</v>
+        <v>2.592202017482872E-20</v>
       </c>
       <c r="U4">
-        <v>-1.058479722903494E-09</v>
+        <v>-1.058471827984214E-09</v>
       </c>
       <c r="V4">
-        <v>1.05846235549707E-09</v>
+        <v>1.058468671432505E-09</v>
       </c>
       <c r="W4">
-        <v>1.894778697553961E-14</v>
+        <v>-3.157987026722799E-15</v>
       </c>
       <c r="X4">
-        <v>1.058476564982053E-09</v>
+        <v>1.058474985998197E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.058468671386234E-09</v>
+        <v>-1.058474987321669E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -12542,40 +12542,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.6666666667001111</v>
+        <v>0.6666666667001114</v>
       </c>
       <c r="AH4">
-        <v>0.3333333331291286</v>
+        <v>0.3333333331291289</v>
       </c>
       <c r="AI4">
-        <v>0.3333333335709895</v>
+        <v>0.3333333335709899</v>
       </c>
       <c r="AJ4">
-        <v>0.6666666666909591</v>
+        <v>0.6666666666909593</v>
       </c>
       <c r="AK4">
-        <v>0.333333333138604</v>
+        <v>0.3333333331386044</v>
       </c>
       <c r="AL4">
-        <v>0.3333333335523625</v>
+        <v>0.3333333335523629</v>
       </c>
       <c r="AM4">
-        <v>1.822782942641482E-09</v>
+        <v>1.822774502340682E-09</v>
       </c>
       <c r="AN4">
-        <v>-179.9999999799337</v>
+        <v>-179.9999999799338</v>
       </c>
       <c r="AO4">
-        <v>179.9999999835668</v>
+        <v>179.9999999835667</v>
       </c>
       <c r="AP4">
-        <v>1.357958735690672E-09</v>
+        <v>1.35798463893055E-09</v>
       </c>
       <c r="AQ4">
-        <v>-179.9999999844856</v>
+        <v>-179.9999999844857</v>
       </c>
       <c r="AR4">
-        <v>179.999999987189</v>
+        <v>179.9999999871889</v>
       </c>
     </row>
   </sheetData>
@@ -12766,40 +12766,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.444432804308156E-09</v>
+        <v>-2.4444422782113E-09</v>
       </c>
       <c r="O2">
-        <v>-6.111141220671274E-10</v>
+        <v>-6.111172800348397E-10</v>
       </c>
       <c r="P2">
-        <v>-6.111078067404257E-10</v>
+        <v>-6.11104648772715E-10</v>
       </c>
       <c r="Q2">
-        <v>2.444432804408827E-09</v>
+        <v>2.444440699328114E-09</v>
       </c>
       <c r="R2">
-        <v>6.111157017556817E-10</v>
+        <v>6.111125437879625E-10</v>
       </c>
       <c r="S2">
-        <v>6.111093864289837E-10</v>
+        <v>6.111078074451336E-10</v>
       </c>
       <c r="T2">
-        <v>-3.157966158335943E-15</v>
+        <v>-1.263186930207587E-14</v>
       </c>
       <c r="U2">
-        <v>3.175407589588605E-09</v>
+        <v>3.175402852637039E-09</v>
       </c>
       <c r="V2">
-        <v>-3.175412329677697E-09</v>
+        <v>-3.175418645613133E-09</v>
       </c>
       <c r="W2">
-        <v>5.793513778441608E-20</v>
+        <v>9.473961080243245E-15</v>
       </c>
       <c r="X2">
-        <v>-3.175413905107594E-09</v>
+        <v>-3.175406010188317E-09</v>
       </c>
       <c r="Y2">
-        <v>3.175412330094134E-09</v>
+        <v>3.175412330094137E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -12823,37 +12823,37 @@
         <v>0.6666666666635033</v>
       </c>
       <c r="AH2">
-        <v>0.3333333331670295</v>
+        <v>0.3333333331670298</v>
       </c>
       <c r="AI2">
-        <v>0.3333333334964809</v>
+        <v>0.3333333334964814</v>
       </c>
       <c r="AJ2">
-        <v>0.6666666666909591</v>
+        <v>0.6666666666909593</v>
       </c>
       <c r="AK2">
-        <v>0.333333333138604</v>
+        <v>0.3333333331386044</v>
       </c>
       <c r="AL2">
-        <v>0.3333333335523625</v>
+        <v>0.3333333335523629</v>
       </c>
       <c r="AM2">
-        <v>-3.647478582900219E-11</v>
+        <v>-3.646721717179536E-11</v>
       </c>
       <c r="AN2">
         <v>-179.9999999981412</v>
       </c>
       <c r="AO2">
-        <v>179.9999999980558</v>
+        <v>179.9999999980557</v>
       </c>
       <c r="AP2">
-        <v>1.357958735690672E-09</v>
+        <v>1.35798463893055E-09</v>
       </c>
       <c r="AQ2">
-        <v>-179.9999999844856</v>
+        <v>-179.9999999844857</v>
       </c>
       <c r="AR2">
-        <v>179.999999987189</v>
+        <v>179.9999999871889</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -12897,40 +12897,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.148330405881314E-10</v>
+        <v>8.148140927818433E-10</v>
       </c>
       <c r="O3">
-        <v>2.037141815720551E-10</v>
+        <v>2.03701549701195E-10</v>
       </c>
       <c r="P3">
-        <v>2.036983919363871E-10</v>
+        <v>2.037015499041037E-10</v>
       </c>
       <c r="Q3">
-        <v>-8.148267246415159E-10</v>
+        <v>-8.148125137867999E-10</v>
       </c>
       <c r="R3">
-        <v>-2.037094445421823E-10</v>
+        <v>-2.037062865744642E-10</v>
       </c>
       <c r="S3">
-        <v>-2.036968128742304E-10</v>
+        <v>-2.0369839185809E-10</v>
       </c>
       <c r="T3">
-        <v>-1.894778036504951E-14</v>
+        <v>2.592202017482872E-20</v>
       </c>
       <c r="U3">
-        <v>-1.05849235477434E-09</v>
+        <v>-1.058471827984214E-09</v>
       </c>
       <c r="V3">
-        <v>1.058474987367939E-09</v>
+        <v>1.058468671432505E-09</v>
       </c>
       <c r="W3">
-        <v>1.57898192609352E-14</v>
+        <v>-3.157987026722799E-15</v>
       </c>
       <c r="X3">
-        <v>1.058489196852902E-09</v>
+        <v>1.058474985998197E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.058481303257101E-09</v>
+        <v>-1.058474987321669E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -12951,40 +12951,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.6666666667001113</v>
+        <v>0.6666666667001114</v>
       </c>
       <c r="AH3">
-        <v>0.3333333331291287</v>
+        <v>0.3333333331291289</v>
       </c>
       <c r="AI3">
-        <v>0.3333333335709896</v>
+        <v>0.3333333335709899</v>
       </c>
       <c r="AJ3">
-        <v>0.6666666666909591</v>
+        <v>0.6666666666909593</v>
       </c>
       <c r="AK3">
-        <v>0.333333333138604</v>
+        <v>0.3333333331386044</v>
       </c>
       <c r="AL3">
-        <v>0.3333333335523625</v>
+        <v>0.3333333335523629</v>
       </c>
       <c r="AM3">
-        <v>1.822789555263585E-09</v>
+        <v>1.822774502340682E-09</v>
       </c>
       <c r="AN3">
-        <v>-179.9999999799336</v>
+        <v>-179.9999999799338</v>
       </c>
       <c r="AO3">
-        <v>179.9999999835668</v>
+        <v>179.9999999835667</v>
       </c>
       <c r="AP3">
-        <v>1.357958735690672E-09</v>
+        <v>1.35798463893055E-09</v>
       </c>
       <c r="AQ3">
-        <v>-179.9999999844856</v>
+        <v>-179.9999999844857</v>
       </c>
       <c r="AR3">
-        <v>179.999999987189</v>
+        <v>179.9999999871889</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -13028,40 +13028,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.148204087172729E-10</v>
+        <v>8.148140927818433E-10</v>
       </c>
       <c r="O4">
-        <v>2.037015497011994E-10</v>
+        <v>2.03701549701195E-10</v>
       </c>
       <c r="P4">
-        <v>2.037047078718159E-10</v>
+        <v>2.037015499041037E-10</v>
       </c>
       <c r="Q4">
-        <v>-8.148267246415159E-10</v>
+        <v>-8.148125137867999E-10</v>
       </c>
       <c r="R4">
-        <v>-2.037031286067536E-10</v>
+        <v>-2.037062865744642E-10</v>
       </c>
       <c r="S4">
-        <v>-2.036999708419442E-10</v>
+        <v>-2.0369839185809E-10</v>
       </c>
       <c r="T4">
-        <v>-2.210574808019317E-14</v>
+        <v>2.592202017482872E-20</v>
       </c>
       <c r="U4">
-        <v>-1.058479722903494E-09</v>
+        <v>-1.058471827984214E-09</v>
       </c>
       <c r="V4">
-        <v>1.05846235549707E-09</v>
+        <v>1.058468671432505E-09</v>
       </c>
       <c r="W4">
-        <v>1.894778697553961E-14</v>
+        <v>-3.157987026722799E-15</v>
       </c>
       <c r="X4">
-        <v>1.058476564982053E-09</v>
+        <v>1.058474985998197E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.058468671386234E-09</v>
+        <v>-1.058474987321669E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -13082,40 +13082,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.6666666667001111</v>
+        <v>0.6666666667001114</v>
       </c>
       <c r="AH4">
-        <v>0.3333333331291286</v>
+        <v>0.3333333331291289</v>
       </c>
       <c r="AI4">
-        <v>0.3333333335709895</v>
+        <v>0.3333333335709899</v>
       </c>
       <c r="AJ4">
-        <v>0.6666666666909591</v>
+        <v>0.6666666666909593</v>
       </c>
       <c r="AK4">
-        <v>0.333333333138604</v>
+        <v>0.3333333331386044</v>
       </c>
       <c r="AL4">
-        <v>0.3333333335523625</v>
+        <v>0.3333333335523629</v>
       </c>
       <c r="AM4">
-        <v>1.822782942641482E-09</v>
+        <v>1.822774502340682E-09</v>
       </c>
       <c r="AN4">
-        <v>-179.9999999799337</v>
+        <v>-179.9999999799338</v>
       </c>
       <c r="AO4">
-        <v>179.9999999835668</v>
+        <v>179.9999999835667</v>
       </c>
       <c r="AP4">
-        <v>1.357958735690672E-09</v>
+        <v>1.35798463893055E-09</v>
       </c>
       <c r="AQ4">
-        <v>-179.9999999844856</v>
+        <v>-179.9999999844857</v>
       </c>
       <c r="AR4">
-        <v>179.999999987189</v>
+        <v>179.9999999871889</v>
       </c>
     </row>
   </sheetData>
@@ -13306,40 +13306,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.444432804308156E-09</v>
+        <v>-2.4444422782113E-09</v>
       </c>
       <c r="O2">
-        <v>-6.111141220671274E-10</v>
+        <v>-6.111172800348397E-10</v>
       </c>
       <c r="P2">
-        <v>-6.111078067404257E-10</v>
+        <v>-6.11104648772715E-10</v>
       </c>
       <c r="Q2">
-        <v>2.444432804408827E-09</v>
+        <v>2.444440699328114E-09</v>
       </c>
       <c r="R2">
-        <v>6.111157017556817E-10</v>
+        <v>6.111125437879625E-10</v>
       </c>
       <c r="S2">
-        <v>6.111093864289837E-10</v>
+        <v>6.111078074451336E-10</v>
       </c>
       <c r="T2">
-        <v>-3.157966158335943E-15</v>
+        <v>-1.263186930207587E-14</v>
       </c>
       <c r="U2">
-        <v>3.175407589588605E-09</v>
+        <v>3.175402852637039E-09</v>
       </c>
       <c r="V2">
-        <v>-3.175412329677697E-09</v>
+        <v>-3.175418645613133E-09</v>
       </c>
       <c r="W2">
-        <v>5.793513778441608E-20</v>
+        <v>9.473961080243245E-15</v>
       </c>
       <c r="X2">
-        <v>-3.175413905107594E-09</v>
+        <v>-3.175406010188317E-09</v>
       </c>
       <c r="Y2">
-        <v>3.175412330094134E-09</v>
+        <v>3.175412330094137E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -13363,37 +13363,37 @@
         <v>0.6666666666635033</v>
       </c>
       <c r="AH2">
-        <v>0.3333333331670295</v>
+        <v>0.3333333331670298</v>
       </c>
       <c r="AI2">
-        <v>0.3333333334964809</v>
+        <v>0.3333333334964814</v>
       </c>
       <c r="AJ2">
-        <v>0.6666666666909591</v>
+        <v>0.6666666666909593</v>
       </c>
       <c r="AK2">
-        <v>0.333333333138604</v>
+        <v>0.3333333331386044</v>
       </c>
       <c r="AL2">
-        <v>0.3333333335523625</v>
+        <v>0.3333333335523629</v>
       </c>
       <c r="AM2">
-        <v>-3.647478582900219E-11</v>
+        <v>-3.646721717179536E-11</v>
       </c>
       <c r="AN2">
         <v>-179.9999999981412</v>
       </c>
       <c r="AO2">
-        <v>179.9999999980558</v>
+        <v>179.9999999980557</v>
       </c>
       <c r="AP2">
-        <v>1.357958735690672E-09</v>
+        <v>1.35798463893055E-09</v>
       </c>
       <c r="AQ2">
-        <v>-179.9999999844856</v>
+        <v>-179.9999999844857</v>
       </c>
       <c r="AR2">
-        <v>179.999999987189</v>
+        <v>179.9999999871889</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -13437,40 +13437,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.148330405881314E-10</v>
+        <v>8.148140927818433E-10</v>
       </c>
       <c r="O3">
-        <v>2.037141815720551E-10</v>
+        <v>2.03701549701195E-10</v>
       </c>
       <c r="P3">
-        <v>2.036983919363871E-10</v>
+        <v>2.037015499041037E-10</v>
       </c>
       <c r="Q3">
-        <v>-8.148267246415159E-10</v>
+        <v>-8.148125137867999E-10</v>
       </c>
       <c r="R3">
-        <v>-2.037094445421823E-10</v>
+        <v>-2.037062865744642E-10</v>
       </c>
       <c r="S3">
-        <v>-2.036968128742304E-10</v>
+        <v>-2.0369839185809E-10</v>
       </c>
       <c r="T3">
-        <v>-1.894778036504951E-14</v>
+        <v>2.592202017482872E-20</v>
       </c>
       <c r="U3">
-        <v>-1.05849235477434E-09</v>
+        <v>-1.058471827984214E-09</v>
       </c>
       <c r="V3">
-        <v>1.058474987367939E-09</v>
+        <v>1.058468671432505E-09</v>
       </c>
       <c r="W3">
-        <v>1.57898192609352E-14</v>
+        <v>-3.157987026722799E-15</v>
       </c>
       <c r="X3">
-        <v>1.058489196852902E-09</v>
+        <v>1.058474985998197E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.058481303257101E-09</v>
+        <v>-1.058474987321669E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -13491,40 +13491,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.6666666667001113</v>
+        <v>0.6666666667001114</v>
       </c>
       <c r="AH3">
-        <v>0.3333333331291287</v>
+        <v>0.3333333331291289</v>
       </c>
       <c r="AI3">
-        <v>0.3333333335709896</v>
+        <v>0.3333333335709899</v>
       </c>
       <c r="AJ3">
-        <v>0.6666666666909591</v>
+        <v>0.6666666666909593</v>
       </c>
       <c r="AK3">
-        <v>0.333333333138604</v>
+        <v>0.3333333331386044</v>
       </c>
       <c r="AL3">
-        <v>0.3333333335523625</v>
+        <v>0.3333333335523629</v>
       </c>
       <c r="AM3">
-        <v>1.822789555263585E-09</v>
+        <v>1.822774502340682E-09</v>
       </c>
       <c r="AN3">
-        <v>-179.9999999799336</v>
+        <v>-179.9999999799338</v>
       </c>
       <c r="AO3">
-        <v>179.9999999835668</v>
+        <v>179.9999999835667</v>
       </c>
       <c r="AP3">
-        <v>1.357958735690672E-09</v>
+        <v>1.35798463893055E-09</v>
       </c>
       <c r="AQ3">
-        <v>-179.9999999844856</v>
+        <v>-179.9999999844857</v>
       </c>
       <c r="AR3">
-        <v>179.999999987189</v>
+        <v>179.9999999871889</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -13568,40 +13568,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.148204087172729E-10</v>
+        <v>8.148140927818433E-10</v>
       </c>
       <c r="O4">
-        <v>2.037015497011994E-10</v>
+        <v>2.03701549701195E-10</v>
       </c>
       <c r="P4">
-        <v>2.037047078718159E-10</v>
+        <v>2.037015499041037E-10</v>
       </c>
       <c r="Q4">
-        <v>-8.148267246415159E-10</v>
+        <v>-8.148125137867999E-10</v>
       </c>
       <c r="R4">
-        <v>-2.037031286067536E-10</v>
+        <v>-2.037062865744642E-10</v>
       </c>
       <c r="S4">
-        <v>-2.036999708419442E-10</v>
+        <v>-2.0369839185809E-10</v>
       </c>
       <c r="T4">
-        <v>-2.210574808019317E-14</v>
+        <v>2.592202017482872E-20</v>
       </c>
       <c r="U4">
-        <v>-1.058479722903494E-09</v>
+        <v>-1.058471827984214E-09</v>
       </c>
       <c r="V4">
-        <v>1.05846235549707E-09</v>
+        <v>1.058468671432505E-09</v>
       </c>
       <c r="W4">
-        <v>1.894778697553961E-14</v>
+        <v>-3.157987026722799E-15</v>
       </c>
       <c r="X4">
-        <v>1.058476564982053E-09</v>
+        <v>1.058474985998197E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.058468671386234E-09</v>
+        <v>-1.058474987321669E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -13622,40 +13622,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.6666666667001111</v>
+        <v>0.6666666667001114</v>
       </c>
       <c r="AH4">
-        <v>0.3333333331291286</v>
+        <v>0.3333333331291289</v>
       </c>
       <c r="AI4">
-        <v>0.3333333335709895</v>
+        <v>0.3333333335709899</v>
       </c>
       <c r="AJ4">
-        <v>0.6666666666909591</v>
+        <v>0.6666666666909593</v>
       </c>
       <c r="AK4">
-        <v>0.333333333138604</v>
+        <v>0.3333333331386044</v>
       </c>
       <c r="AL4">
-        <v>0.3333333335523625</v>
+        <v>0.3333333335523629</v>
       </c>
       <c r="AM4">
-        <v>1.822782942641482E-09</v>
+        <v>1.822774502340682E-09</v>
       </c>
       <c r="AN4">
-        <v>-179.9999999799337</v>
+        <v>-179.9999999799338</v>
       </c>
       <c r="AO4">
-        <v>179.9999999835668</v>
+        <v>179.9999999835667</v>
       </c>
       <c r="AP4">
-        <v>1.357958735690672E-09</v>
+        <v>1.35798463893055E-09</v>
       </c>
       <c r="AQ4">
-        <v>-179.9999999844856</v>
+        <v>-179.9999999844857</v>
       </c>
       <c r="AR4">
-        <v>179.999999987189</v>
+        <v>179.9999999871889</v>
       </c>
     </row>
   </sheetData>
@@ -14968,40 +14968,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-1.563194052506537E-14</v>
+        <v>-3.126388105013047E-14</v>
       </c>
       <c r="O2">
-        <v>1.042124982428609E-14</v>
+        <v>1.302657324318456E-14</v>
       </c>
       <c r="P2">
-        <v>-4.453701581637349E-20</v>
+        <v>-5.210691373444642E-15</v>
       </c>
       <c r="Q2">
-        <v>5.210646841688501E-15</v>
+        <v>2.084258736675368E-14</v>
       </c>
       <c r="R2">
-        <v>2.605795522812271E-15</v>
+        <v>4.721031286683035E-19</v>
       </c>
       <c r="S2">
-        <v>4.727894349048249E-19</v>
+        <v>-5.210174064428119E-15</v>
       </c>
       <c r="T2">
-        <v>2.08425873667533E-14</v>
+        <v>2.084258736675312E-14</v>
       </c>
       <c r="U2">
-        <v>5.763410493837118E-09</v>
+        <v>5.763389651249763E-09</v>
       </c>
       <c r="V2">
-        <v>-5.763402682029841E-09</v>
+        <v>-5.763381839442464E-09</v>
       </c>
       <c r="W2">
-        <v>-1.042129368337668E-14</v>
+        <v>-1.563194052506487E-14</v>
       </c>
       <c r="X2">
-        <v>-5.763394861410699E-09</v>
+        <v>-5.763394861410703E-09</v>
       </c>
       <c r="Y2">
-        <v>5.763407893162584E-09</v>
+        <v>5.7633870505752E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -15025,37 +15025,37 @@
         <v>1.100000023808766</v>
       </c>
       <c r="AG2">
-        <v>0.5500000117057459</v>
+        <v>0.5500000117057464</v>
       </c>
       <c r="AH2">
-        <v>0.5500000121030184</v>
+        <v>0.550000012103018</v>
       </c>
       <c r="AI2">
         <v>1.100000023808766</v>
       </c>
       <c r="AJ2">
-        <v>0.5500000116593765</v>
+        <v>0.550000011659377</v>
       </c>
       <c r="AK2">
-        <v>0.5500000121493875</v>
+        <v>0.5500000121493868</v>
       </c>
       <c r="AL2">
-        <v>6.92343595716384E-13</v>
+        <v>6.634117486182683E-13</v>
       </c>
       <c r="AM2">
         <v>-179.9999999995567</v>
       </c>
       <c r="AN2">
-        <v>179.9999999995499</v>
+        <v>179.99999999955</v>
       </c>
       <c r="AO2">
-        <v>7.082758124159204E-13</v>
+        <v>6.817262890806854E-13</v>
       </c>
       <c r="AP2">
         <v>-179.9999999952994</v>
       </c>
       <c r="AQ2">
-        <v>179.9999999952925</v>
+        <v>179.9999999952927</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -15099,40 +15099,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.04212936833772E-14</v>
+        <v>-5.210646841688246E-15</v>
       </c>
       <c r="O3">
-        <v>2.049494803798653E-19</v>
+        <v>2.605528369090769E-15</v>
       </c>
       <c r="P3">
-        <v>4.168537993086173E-14</v>
+        <v>5.210852021331813E-15</v>
       </c>
       <c r="Q3">
-        <v>-1.56319405250657E-14</v>
+        <v>-5.210646841688558E-15</v>
       </c>
       <c r="R3">
-        <v>1.302645973070846E-14</v>
+        <v>1.042113631187851E-14</v>
       </c>
       <c r="S3">
-        <v>-5.210662603514871E-14</v>
+        <v>-1.563209812607722E-14</v>
       </c>
       <c r="T3">
-        <v>-3.647452789181846E-14</v>
+        <v>-1.042129368337681E-14</v>
       </c>
       <c r="U3">
-        <v>-1.921126409769406E-09</v>
+        <v>-1.921126409769407E-09</v>
       </c>
       <c r="V3">
-        <v>1.921123806265545E-09</v>
+        <v>1.921134227559233E-09</v>
       </c>
       <c r="W3">
-        <v>4.689582157519516E-14</v>
+        <v>1.563194052506506E-14</v>
       </c>
       <c r="X3">
-        <v>1.921131620470234E-09</v>
+        <v>1.921121199176557E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.92111859556471E-09</v>
+        <v>-1.921139438152087E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -15153,25 +15153,25 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.100000023808765</v>
+        <v>1.100000023808766</v>
       </c>
       <c r="AG3">
-        <v>0.5500000116439205</v>
+        <v>0.5500000116439208</v>
       </c>
       <c r="AH3">
-        <v>0.5500000121648446</v>
+        <v>0.5500000121648434</v>
       </c>
       <c r="AI3">
         <v>1.100000023808766</v>
       </c>
       <c r="AJ3">
-        <v>0.5500000116593765</v>
+        <v>0.550000011659377</v>
       </c>
       <c r="AK3">
-        <v>0.5500000121493875</v>
+        <v>0.5500000121493868</v>
       </c>
       <c r="AL3">
-        <v>7.251392252311684E-13</v>
+        <v>6.900604424749159E-13</v>
       </c>
       <c r="AM3">
         <v>-179.9999999938803</v>
@@ -15180,13 +15180,13 @@
         <v>179.9999999938735</v>
       </c>
       <c r="AO3">
-        <v>7.082758124159204E-13</v>
+        <v>6.817262890806854E-13</v>
       </c>
       <c r="AP3">
         <v>-179.9999999952994</v>
       </c>
       <c r="AQ3">
-        <v>179.9999999952925</v>
+        <v>179.9999999952927</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -15230,40 +15230,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-2.605323420844159E-14</v>
+        <v>-5.210646841688246E-15</v>
       </c>
       <c r="O4">
-        <v>2.049494803798653E-19</v>
+        <v>2.605528369090769E-15</v>
       </c>
       <c r="P4">
-        <v>2.084279255501348E-14</v>
+        <v>5.210852021331813E-15</v>
       </c>
       <c r="Q4">
-        <v>1.56319405250648E-14</v>
+        <v>-5.210646841688558E-15</v>
       </c>
       <c r="R4">
-        <v>2.605166051974046E-15</v>
+        <v>1.042113631187851E-14</v>
       </c>
       <c r="S4">
-        <v>-2.084274497194647E-14</v>
+        <v>-1.563209812607722E-14</v>
       </c>
       <c r="T4">
-        <v>-2.08425873667538E-14</v>
+        <v>-1.042129368337681E-14</v>
       </c>
       <c r="U4">
         <v>-1.921126409769407E-09</v>
       </c>
       <c r="V4">
-        <v>1.921123806265547E-09</v>
+        <v>1.921134227559233E-09</v>
       </c>
       <c r="W4">
-        <v>2.605323420844206E-14</v>
+        <v>1.563194052506506E-14</v>
       </c>
       <c r="X4">
-        <v>1.921131620470233E-09</v>
+        <v>1.921121199176557E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.921129016858401E-09</v>
+        <v>-1.921139438152087E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -15284,40 +15284,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.100000023808765</v>
+        <v>1.100000023808766</v>
       </c>
       <c r="AG4">
-        <v>0.5500000116439206</v>
+        <v>0.5500000116439208</v>
       </c>
       <c r="AH4">
-        <v>0.5500000121648444</v>
+        <v>0.5500000121648434</v>
       </c>
       <c r="AI4">
         <v>1.100000023808766</v>
       </c>
       <c r="AJ4">
-        <v>0.5500000116593765</v>
+        <v>0.550000011659377</v>
       </c>
       <c r="AK4">
-        <v>0.5500000121493875</v>
+        <v>0.5500000121493868</v>
       </c>
       <c r="AL4">
-        <v>7.138106372806309E-13</v>
+        <v>6.900604424749159E-13</v>
       </c>
       <c r="AM4">
         <v>-179.9999999938803</v>
       </c>
       <c r="AN4">
-        <v>179.9999999938734</v>
+        <v>179.9999999938735</v>
       </c>
       <c r="AO4">
-        <v>7.082758124159204E-13</v>
+        <v>6.817262890806854E-13</v>
       </c>
       <c r="AP4">
         <v>-179.9999999952994</v>
       </c>
       <c r="AQ4">
-        <v>179.9999999952925</v>
+        <v>179.9999999952927</v>
       </c>
     </row>
   </sheetData>
